--- a/20231007_Python と Java と Go と Node.js と PHP と Rupy のサポート状況/123_PythonSupport.xlsx
+++ b/20231007_Python と Java と Go と Node.js と PHP と Rupy のサポート状況/123_PythonSupport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20231007_Python と Java と Go と Node.js と PHP と Rupy のサポート状況\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC66628-79EA-4522-93C3-4FC2DBAF0CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C93269-78E0-4913-B884-579937445D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6945" yWindow="1770" windowWidth="13140" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -59,19 +59,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TypeScript</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Go</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.18</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -171,10 +163,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5.3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Version</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -200,6 +188,18 @@
   </si>
   <si>
     <t>黄緑：延長サポート期間 / Light green: Extended support</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.4</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -230,7 +230,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,14 +255,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="32">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -620,21 +614,6 @@
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -784,7 +763,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1069,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U54" sqref="U54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1091,7 +1070,7 @@
       <c r="E2" s="29"/>
       <c r="F2" s="26"/>
       <c r="G2" s="26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -1103,43 +1082,43 @@
     </row>
     <row r="3" spans="2:15" ht="16.5" thickBot="1">
       <c r="E3" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="G3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="I3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="J3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="K3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="L3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="M3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="N3" s="28" t="s">
         <v>24</v>
-      </c>
-      <c r="M3" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="28" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="16.5" thickBot="1">
       <c r="B4" s="45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="47" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E4" s="5">
         <v>2024</v>
@@ -1428,7 +1407,7 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D21" s="12">
         <v>8</v>
@@ -1586,79 +1565,77 @@
       <c r="N30" s="12"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="2:15" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B31" s="10"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="15"/>
+    <row r="31" spans="2:15" ht="5.0999999999999996" customHeight="1">
+      <c r="B31" s="9"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="12"/>
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="2:15" ht="5.0999999999999996" customHeight="1">
       <c r="B32" s="9"/>
-      <c r="D32" s="12"/>
+      <c r="D32" s="13"/>
       <c r="E32" s="41"/>
       <c r="F32" s="35"/>
       <c r="G32" s="35"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="31"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="33"/>
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
+      <c r="L32" s="48"/>
       <c r="M32" s="16"/>
       <c r="N32" s="12"/>
       <c r="O32" s="3"/>
     </row>
     <row r="33" spans="2:15">
-      <c r="B33" s="9" t="s">
-        <v>2</v>
-      </c>
+      <c r="B33" s="9"/>
       <c r="D33" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="16"/>
+        <v>30</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
       <c r="H33" s="35"/>
       <c r="I33" s="33"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
       <c r="M33" s="16"/>
       <c r="N33" s="12"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="2:15" ht="5.0999999999999996" customHeight="1">
-      <c r="B34" s="9"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="12"/>
+    <row r="34" spans="2:15" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="B34" s="10"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="2:15" ht="5.0999999999999996" customHeight="1">
       <c r="B35" s="9"/>
-      <c r="D35" s="13"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="41"/>
       <c r="F35" s="35"/>
       <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="33"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="31"/>
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
@@ -1667,14 +1644,16 @@
       <c r="O35" s="3"/>
     </row>
     <row r="36" spans="2:15">
-      <c r="B36" s="9"/>
+      <c r="B36" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="D36" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="35"/>
       <c r="I36" s="33"/>
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
@@ -1715,13 +1694,13 @@
     </row>
     <row r="39" spans="2:15">
       <c r="B39" s="9"/>
-      <c r="D39" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
+      <c r="D39" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="16"/>
       <c r="I39" s="33"/>
       <c r="J39" s="16"/>
       <c r="K39" s="16"/>
@@ -1730,7 +1709,7 @@
       <c r="N39" s="12"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="2:15" ht="5.0999999999999996" customHeight="1" thickBot="1">
+    <row r="40" spans="2:15" ht="5.0999999999999996" customHeight="1">
       <c r="B40" s="9"/>
       <c r="D40" s="12"/>
       <c r="E40" s="41"/>
@@ -1746,29 +1725,26 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="2:15" ht="5.0999999999999996" customHeight="1">
-      <c r="B41" s="8"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="11"/>
+      <c r="B41" s="9"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="12"/>
       <c r="O41" s="3"/>
     </row>
     <row r="42" spans="2:15">
-      <c r="B42" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="12">
-        <v>8.1</v>
-      </c>
-      <c r="E42" s="19"/>
+      <c r="B42" s="9"/>
+      <c r="D42" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="20"/>
       <c r="F42" s="16"/>
       <c r="G42" s="35"/>
       <c r="H42" s="35"/>
@@ -1780,7 +1756,7 @@
       <c r="N42" s="12"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="2:15" ht="5.0999999999999996" customHeight="1">
+    <row r="43" spans="2:15" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B43" s="9"/>
       <c r="D43" s="12"/>
       <c r="E43" s="41"/>
@@ -1796,28 +1772,31 @@
       <c r="O43" s="3"/>
     </row>
     <row r="44" spans="2:15" ht="5.0999999999999996" customHeight="1">
-      <c r="B44" s="9"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="12"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="11"/>
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="2:15">
-      <c r="B45" s="9"/>
+      <c r="B45" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D45" s="12">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="16"/>
+        <v>8.1</v>
+      </c>
+      <c r="E45" s="19"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="35"/>
       <c r="H45" s="35"/>
       <c r="I45" s="33"/>
       <c r="J45" s="16"/>
@@ -1859,13 +1838,13 @@
     </row>
     <row r="48" spans="2:15">
       <c r="B48" s="9"/>
-      <c r="D48" s="14">
-        <v>8.3000000000000007</v>
+      <c r="D48" s="12">
+        <v>8.1999999999999993</v>
       </c>
       <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="16"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="35"/>
       <c r="I48" s="33"/>
       <c r="J48" s="16"/>
       <c r="K48" s="16"/>
@@ -1874,25 +1853,24 @@
       <c r="N48" s="12"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="2:15" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B49" s="10"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="15"/>
+    <row r="49" spans="2:15" ht="5.0999999999999996" customHeight="1">
+      <c r="B49" s="9"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="12"/>
       <c r="O49" s="3"/>
     </row>
     <row r="50" spans="2:15" ht="5.0999999999999996" customHeight="1">
       <c r="B50" s="9"/>
-      <c r="D50" s="12"/>
+      <c r="D50" s="13"/>
       <c r="E50" s="41"/>
       <c r="F50" s="35"/>
       <c r="G50" s="35"/>
@@ -1906,16 +1884,14 @@
       <c r="O50" s="3"/>
     </row>
     <row r="51" spans="2:15">
-      <c r="B51" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="19"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
+      <c r="B51" s="9"/>
+      <c r="D51" s="14">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="16"/>
       <c r="I51" s="33"/>
       <c r="J51" s="16"/>
       <c r="K51" s="16"/>
@@ -1924,24 +1900,25 @@
       <c r="N51" s="12"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="2:15" ht="5.0999999999999996" customHeight="1">
-      <c r="B52" s="9"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="12"/>
+    <row r="52" spans="2:15" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="B52" s="10"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
     <row r="53" spans="2:15" ht="5.0999999999999996" customHeight="1">
       <c r="B53" s="9"/>
-      <c r="D53" s="13"/>
+      <c r="D53" s="12"/>
       <c r="E53" s="41"/>
       <c r="F53" s="35"/>
       <c r="G53" s="35"/>
@@ -1955,7 +1932,9 @@
       <c r="O53" s="3"/>
     </row>
     <row r="54" spans="2:15">
-      <c r="B54" s="9"/>
+      <c r="B54" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="D54" s="12">
         <v>3.1</v>
       </c>
@@ -2098,14 +2077,14 @@
     </row>
     <row r="63" spans="2:15">
       <c r="B63" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="19"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="35"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="16"/>
       <c r="H63" s="33"/>
       <c r="I63" s="16"/>
       <c r="J63" s="16"/>
@@ -2119,8 +2098,8 @@
       <c r="B64" s="9"/>
       <c r="D64" s="12"/>
       <c r="E64" s="41"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="32"/>
       <c r="H64" s="33"/>
       <c r="I64" s="16"/>
       <c r="J64" s="16"/>
@@ -2134,8 +2113,8 @@
       <c r="B65" s="9"/>
       <c r="D65" s="13"/>
       <c r="E65" s="41"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="32"/>
       <c r="H65" s="33"/>
       <c r="I65" s="16"/>
       <c r="J65" s="16"/>
@@ -2147,13 +2126,13 @@
     </row>
     <row r="66" spans="2:15">
       <c r="B66" s="9"/>
-      <c r="D66" s="12" t="s">
-        <v>12</v>
+      <c r="D66" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="E66" s="20"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="33"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="16"/>
       <c r="I66" s="16"/>
       <c r="J66" s="16"/>
       <c r="K66" s="16"/>
@@ -2195,7 +2174,7 @@
     <row r="69" spans="2:15">
       <c r="B69" s="9"/>
       <c r="D69" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
@@ -2242,7 +2221,7 @@
     <row r="72" spans="2:15">
       <c r="B72" s="9"/>
       <c r="D72" s="12" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
@@ -2289,12 +2268,12 @@
     </row>
     <row r="75" spans="2:15">
       <c r="B75" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E75" s="48"/>
+        <v>31</v>
+      </c>
+      <c r="E75" s="20"/>
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
       <c r="H75" s="16"/>
@@ -2328,13 +2307,13 @@
     <row r="78" spans="2:15">
       <c r="E78" s="2"/>
       <c r="F78" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="2:15">
       <c r="E79" s="25"/>
       <c r="F79" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2342,7 +2321,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D51 D12 D72 D63 D69 D66 D75" numberStoredAsText="1"/>
+    <ignoredError sqref="D12 D66 D63 D72 D69 D33 D75" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/20231007_Python と Java と Go と Node.js と PHP と Rupy のサポート状況/123_PythonSupport.xlsx
+++ b/20231007_Python と Java と Go と Node.js と PHP と Rupy のサポート状況/123_PythonSupport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20231007_Python と Java と Go と Node.js と PHP と Rupy のサポート状況\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C93269-78E0-4913-B884-579937445D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DBBD44-32CE-4693-94ED-46B5FD537B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Python</t>
     <phoneticPr fontId="1"/>
@@ -36,18 +36,6 @@
   </si>
   <si>
     <t>Node.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>18.x</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20.x</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>21.x</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -200,6 +188,10 @@
   </si>
   <si>
     <t>5.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -622,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -763,7 +755,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1046,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O79"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U54" sqref="U54"/>
+      <selection activeCell="R80" sqref="R80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1070,7 +1065,7 @@
       <c r="E2" s="29"/>
       <c r="F2" s="26"/>
       <c r="G2" s="26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -1082,43 +1077,43 @@
     </row>
     <row r="3" spans="2:15" ht="16.5" thickBot="1">
       <c r="E3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="H3" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="J3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="K3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="L3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="M3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="N3" s="28" t="s">
         <v>21</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="28" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="16.5" thickBot="1">
       <c r="B4" s="45" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="47" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4" s="5">
         <v>2024</v>
@@ -1407,7 +1402,7 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D21" s="12">
         <v>8</v>
@@ -1575,7 +1570,7 @@
       <c r="I31" s="33"/>
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
-      <c r="L31" s="48"/>
+      <c r="L31" s="16"/>
       <c r="M31" s="16"/>
       <c r="N31" s="12"/>
       <c r="O31" s="3"/>
@@ -1590,29 +1585,29 @@
       <c r="I32" s="33"/>
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
-      <c r="L32" s="48"/>
+      <c r="L32" s="16"/>
       <c r="M32" s="16"/>
       <c r="N32" s="12"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="1:15">
       <c r="B33" s="9"/>
       <c r="D33" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="35"/>
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
       <c r="I33" s="33"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
       <c r="M33" s="16"/>
       <c r="N33" s="12"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="2:15" ht="5.0999999999999996" customHeight="1" thickBot="1">
+    <row r="34" spans="1:15" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B34" s="10"/>
       <c r="C34" s="44"/>
       <c r="D34" s="15"/>
@@ -1628,7 +1623,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="2:15" ht="5.0999999999999996" customHeight="1">
+    <row r="35" spans="1:15" ht="5.0999999999999996" customHeight="1">
       <c r="B35" s="9"/>
       <c r="D35" s="12"/>
       <c r="E35" s="41"/>
@@ -1643,12 +1638,12 @@
       <c r="N35" s="12"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="1:15">
       <c r="B36" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="12" t="s">
-        <v>3</v>
+      <c r="D36" s="48">
+        <v>18</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
@@ -1662,7 +1657,10 @@
       <c r="N36" s="12"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="2:15" ht="5.0999999999999996" customHeight="1">
+    <row r="37" spans="1:15" ht="5.0999999999999996" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B37" s="9"/>
       <c r="D37" s="12"/>
       <c r="E37" s="41"/>
@@ -1677,7 +1675,7 @@
       <c r="N37" s="12"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="2:15" ht="5.0999999999999996" customHeight="1">
+    <row r="38" spans="1:15" ht="5.0999999999999996" customHeight="1">
       <c r="B38" s="9"/>
       <c r="D38" s="13"/>
       <c r="E38" s="41"/>
@@ -1692,12 +1690,12 @@
       <c r="N38" s="12"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="1:15">
       <c r="B39" s="9"/>
-      <c r="D39" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="19"/>
+      <c r="D39" s="48">
+        <v>20</v>
+      </c>
+      <c r="E39" s="20"/>
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
       <c r="H39" s="16"/>
@@ -1709,7 +1707,7 @@
       <c r="N39" s="12"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="2:15" ht="5.0999999999999996" customHeight="1">
+    <row r="40" spans="1:15" ht="5.0999999999999996" customHeight="1">
       <c r="B40" s="9"/>
       <c r="D40" s="12"/>
       <c r="E40" s="41"/>
@@ -1724,7 +1722,7 @@
       <c r="N40" s="12"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="2:15" ht="5.0999999999999996" customHeight="1">
+    <row r="41" spans="1:15" ht="5.0999999999999996" customHeight="1">
       <c r="B41" s="9"/>
       <c r="D41" s="13"/>
       <c r="E41" s="41"/>
@@ -1739,12 +1737,12 @@
       <c r="N41" s="12"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="1:15">
       <c r="B42" s="9"/>
-      <c r="D42" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="20"/>
+      <c r="D42" s="49">
+        <v>21</v>
+      </c>
+      <c r="E42" s="19"/>
       <c r="F42" s="16"/>
       <c r="G42" s="35"/>
       <c r="H42" s="35"/>
@@ -1756,7 +1754,7 @@
       <c r="N42" s="12"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="2:15" ht="5.0999999999999996" customHeight="1" thickBot="1">
+    <row r="43" spans="1:15" ht="5.0999999999999996" customHeight="1">
       <c r="B43" s="9"/>
       <c r="D43" s="12"/>
       <c r="E43" s="41"/>
@@ -1771,34 +1769,31 @@
       <c r="N43" s="12"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="2:15" ht="5.0999999999999996" customHeight="1">
-      <c r="B44" s="8"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="11"/>
+    <row r="44" spans="1:15" ht="5.0999999999999996" customHeight="1">
+      <c r="B44" s="9"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="12"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="2:15">
-      <c r="B45" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="12">
-        <v>8.1</v>
-      </c>
-      <c r="E45" s="19"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="33"/>
+    <row r="45" spans="1:15">
+      <c r="B45" s="9"/>
+      <c r="D45" s="49">
+        <v>22</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="16"/>
       <c r="J45" s="16"/>
       <c r="K45" s="16"/>
       <c r="L45" s="16"/>
@@ -1806,7 +1801,7 @@
       <c r="N45" s="12"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="2:15" ht="5.0999999999999996" customHeight="1">
+    <row r="46" spans="1:15" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B46" s="9"/>
       <c r="D46" s="12"/>
       <c r="E46" s="41"/>
@@ -1821,29 +1816,32 @@
       <c r="N46" s="12"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="2:15" ht="5.0999999999999996" customHeight="1">
-      <c r="B47" s="9"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="12"/>
+    <row r="47" spans="1:15" ht="5.0999999999999996" customHeight="1">
+      <c r="B47" s="8"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="11"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="2:15">
-      <c r="B48" s="9"/>
+    <row r="48" spans="1:15">
+      <c r="B48" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="D48" s="12">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E48" s="20"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="16"/>
+        <v>8.1</v>
+      </c>
+      <c r="E48" s="19"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="35"/>
       <c r="H48" s="35"/>
       <c r="I48" s="33"/>
       <c r="J48" s="16"/>
@@ -1885,13 +1883,13 @@
     </row>
     <row r="51" spans="2:15">
       <c r="B51" s="9"/>
-      <c r="D51" s="14">
-        <v>8.3000000000000007</v>
+      <c r="D51" s="12">
+        <v>8.1999999999999993</v>
       </c>
       <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="16"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="35"/>
       <c r="I51" s="33"/>
       <c r="J51" s="16"/>
       <c r="K51" s="16"/>
@@ -1900,25 +1898,24 @@
       <c r="N51" s="12"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="2:15" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B52" s="10"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="15"/>
+    <row r="52" spans="2:15" ht="5.0999999999999996" customHeight="1">
+      <c r="B52" s="9"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="12"/>
       <c r="O52" s="3"/>
     </row>
     <row r="53" spans="2:15" ht="5.0999999999999996" customHeight="1">
       <c r="B53" s="9"/>
-      <c r="D53" s="12"/>
+      <c r="D53" s="13"/>
       <c r="E53" s="41"/>
       <c r="F53" s="35"/>
       <c r="G53" s="35"/>
@@ -1932,16 +1929,14 @@
       <c r="O53" s="3"/>
     </row>
     <row r="54" spans="2:15">
-      <c r="B54" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="12">
-        <v>3.1</v>
+      <c r="B54" s="9"/>
+      <c r="D54" s="14">
+        <v>8.3000000000000007</v>
       </c>
       <c r="E54" s="20"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="35"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="16"/>
       <c r="I54" s="33"/>
       <c r="J54" s="16"/>
       <c r="K54" s="16"/>
@@ -1950,24 +1945,25 @@
       <c r="N54" s="12"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="2:15" ht="5.0999999999999996" customHeight="1">
-      <c r="B55" s="9"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="12"/>
+    <row r="55" spans="2:15" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="B55" s="10"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
     <row r="56" spans="2:15" ht="5.0999999999999996" customHeight="1">
       <c r="B56" s="9"/>
-      <c r="D56" s="13"/>
+      <c r="D56" s="12"/>
       <c r="E56" s="41"/>
       <c r="F56" s="35"/>
       <c r="G56" s="35"/>
@@ -1981,14 +1977,16 @@
       <c r="O56" s="3"/>
     </row>
     <row r="57" spans="2:15">
-      <c r="B57" s="9"/>
-      <c r="D57" s="14">
-        <v>3.2</v>
+      <c r="B57" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="12">
+        <v>3.1</v>
       </c>
       <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="16"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="35"/>
       <c r="I57" s="33"/>
       <c r="J57" s="16"/>
       <c r="K57" s="16"/>
@@ -2029,14 +2027,14 @@
     </row>
     <row r="60" spans="2:15">
       <c r="B60" s="9"/>
-      <c r="D60" s="12">
-        <v>3.3</v>
+      <c r="D60" s="14">
+        <v>3.2</v>
       </c>
       <c r="E60" s="20"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="16"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="33"/>
       <c r="J60" s="16"/>
       <c r="K60" s="16"/>
       <c r="L60" s="16"/>
@@ -2044,14 +2042,14 @@
       <c r="N60" s="12"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="2:15" ht="5.0999999999999996" customHeight="1" thickBot="1">
+    <row r="61" spans="2:15" ht="5.0999999999999996" customHeight="1">
       <c r="B61" s="9"/>
       <c r="D61" s="12"/>
       <c r="E61" s="41"/>
       <c r="F61" s="35"/>
       <c r="G61" s="35"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="16"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="33"/>
       <c r="J61" s="16"/>
       <c r="K61" s="16"/>
       <c r="L61" s="16"/>
@@ -2060,32 +2058,29 @@
       <c r="O61" s="3"/>
     </row>
     <row r="62" spans="2:15" ht="5.0999999999999996" customHeight="1">
-      <c r="B62" s="8"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="11"/>
+      <c r="B62" s="9"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="12"/>
       <c r="O62" s="3"/>
     </row>
     <row r="63" spans="2:15">
-      <c r="B63" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>10</v>
+      <c r="B63" s="9"/>
+      <c r="D63" s="12">
+        <v>3.3</v>
       </c>
       <c r="E63" s="20"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="33"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="19"/>
       <c r="I63" s="16"/>
       <c r="J63" s="16"/>
       <c r="K63" s="16"/>
@@ -2094,12 +2089,12 @@
       <c r="N63" s="12"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="2:15" ht="5.0999999999999996" customHeight="1">
+    <row r="64" spans="2:15" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B64" s="9"/>
       <c r="D64" s="12"/>
       <c r="E64" s="41"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="32"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
       <c r="H64" s="33"/>
       <c r="I64" s="16"/>
       <c r="J64" s="16"/>
@@ -2110,29 +2105,32 @@
       <c r="O64" s="3"/>
     </row>
     <row r="65" spans="2:15" ht="5.0999999999999996" customHeight="1">
-      <c r="B65" s="9"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="12"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="11"/>
       <c r="O65" s="3"/>
     </row>
     <row r="66" spans="2:15">
-      <c r="B66" s="9"/>
-      <c r="D66" s="14" t="s">
-        <v>11</v>
+      <c r="B66" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="16"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="33"/>
       <c r="I66" s="16"/>
       <c r="J66" s="16"/>
       <c r="K66" s="16"/>
@@ -2174,7 +2172,7 @@
     <row r="69" spans="2:15">
       <c r="B69" s="9"/>
       <c r="D69" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
@@ -2220,8 +2218,8 @@
     </row>
     <row r="72" spans="2:15">
       <c r="B72" s="9"/>
-      <c r="D72" s="12" t="s">
-        <v>29</v>
+      <c r="D72" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
@@ -2235,29 +2233,28 @@
       <c r="N72" s="12"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="2:15" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B73" s="10"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="21"/>
-      <c r="M73" s="21"/>
-      <c r="N73" s="15"/>
+    <row r="73" spans="2:15" ht="5.0999999999999996" customHeight="1">
+      <c r="B73" s="9"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="12"/>
       <c r="O73" s="3"/>
     </row>
     <row r="74" spans="2:15" ht="5.0999999999999996" customHeight="1">
       <c r="B74" s="9"/>
-      <c r="D74" s="12"/>
+      <c r="D74" s="13"/>
       <c r="E74" s="41"/>
       <c r="F74" s="33"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="33"/>
       <c r="I74" s="16"/>
       <c r="J74" s="16"/>
       <c r="K74" s="16"/>
@@ -2267,15 +2264,13 @@
       <c r="O74" s="3"/>
     </row>
     <row r="75" spans="2:15">
-      <c r="B75" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="B75" s="9"/>
       <c r="D75" s="12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E75" s="20"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="19"/>
       <c r="H75" s="16"/>
       <c r="I75" s="16"/>
       <c r="J75" s="16"/>
@@ -2283,13 +2278,14 @@
       <c r="L75" s="16"/>
       <c r="M75" s="16"/>
       <c r="N75" s="12"/>
+      <c r="O75" s="3"/>
     </row>
     <row r="76" spans="2:15" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B76" s="10"/>
       <c r="C76" s="44"/>
       <c r="D76" s="15"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="38"/>
       <c r="G76" s="21"/>
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
@@ -2301,19 +2297,68 @@
       <c r="O76" s="3"/>
     </row>
     <row r="77" spans="2:15" ht="5.0999999999999996" customHeight="1">
-      <c r="D77" s="16"/>
+      <c r="B77" s="9"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="12"/>
       <c r="O77" s="3"/>
     </row>
     <row r="78" spans="2:15">
-      <c r="E78" s="2"/>
-      <c r="F78" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="79" spans="2:15">
-      <c r="E79" s="25"/>
-      <c r="F79" s="4" t="s">
+      <c r="B78" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="E78" s="20"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="12"/>
+    </row>
+    <row r="79" spans="2:15" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="B79" s="10"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="3"/>
+    </row>
+    <row r="80" spans="2:15" ht="5.0999999999999996" customHeight="1">
+      <c r="D80" s="16"/>
+      <c r="O80" s="3"/>
+    </row>
+    <row r="81" spans="5:6">
+      <c r="E81" s="2"/>
+      <c r="F81" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6">
+      <c r="E82" s="25"/>
+      <c r="F82" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2321,7 +2366,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D12 D66 D63 D72 D69 D33 D75" numberStoredAsText="1"/>
+    <ignoredError sqref="D12 D69 D66 D75 D72 D33 D78" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/20231007_Python と Java と Go と Node.js と PHP と Rupy のサポート状況/123_PythonSupport.xlsx
+++ b/20231007_Python と Java と Go と Node.js と PHP と Rupy のサポート状況/123_PythonSupport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20231007_Python と Java と Go と Node.js と PHP と Rupy のサポート状況\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DBBD44-32CE-4693-94ED-46B5FD537B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86265D14-9463-4A9C-B284-C3C9EF1A4491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Python</t>
     <phoneticPr fontId="1"/>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Oracle JDK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>R7年</t>
     <rPh sb="2" eb="3">
       <t>ネン</t>
@@ -183,15 +179,40 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>22</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>5.4</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サポート内</t>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Oracle JDK)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄：過去の製品のサポート期間から予測 / Yellow: Forecast based on old support period</t>
+    <rPh sb="12" eb="14">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R16年</t>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -199,7 +220,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,8 +245,37 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,8 +300,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -610,11 +681,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -755,10 +926,76 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1041,13 +1278,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:R86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R80" sqref="R80"/>
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="4" customWidth="1"/>
@@ -1055,17 +1292,18 @@
     <col min="4" max="4" width="8.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.125" style="3" customWidth="1"/>
     <col min="6" max="8" width="5.625" style="3" customWidth="1"/>
-    <col min="9" max="14" width="6.125" style="3" customWidth="1"/>
-    <col min="15" max="16" width="2.625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="9" max="15" width="6.125" style="3" customWidth="1"/>
+    <col min="16" max="17" width="2.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="16.5" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:18" ht="16.5" thickBot="1"/>
+    <row r="2" spans="2:18">
       <c r="E2" s="29"/>
       <c r="F2" s="26"/>
       <c r="G2" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -1073,47 +1311,51 @@
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
-      <c r="N2" s="23"/>
-    </row>
-    <row r="3" spans="2:15" ht="16.5" thickBot="1">
+      <c r="N2" s="22"/>
+      <c r="O2" s="23"/>
+    </row>
+    <row r="3" spans="2:18" ht="16.5" thickBot="1">
       <c r="E3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="H3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="I3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="J3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="K3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="L3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="M3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="N3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="16.5" thickBot="1">
+      <c r="O3" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="16.5" thickBot="1">
       <c r="B4" s="45" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="5">
         <v>2024</v>
@@ -1142,11 +1384,14 @@
       <c r="M4" s="6">
         <v>2032</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="6">
         <v>2033</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" ht="5.0999999999999996" customHeight="1">
+      <c r="O4" s="7">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="5.0999999999999996" customHeight="1">
       <c r="B5" s="8"/>
       <c r="C5" s="43"/>
       <c r="D5" s="11"/>
@@ -1159,10 +1404,11 @@
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
       <c r="M5" s="34"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="2:15">
+      <c r="N5" s="31"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="2:18">
       <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
@@ -1178,10 +1424,14 @@
       <c r="K6" s="35"/>
       <c r="L6" s="35"/>
       <c r="M6" s="35"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="2:15" ht="5.0999999999999996" customHeight="1">
+      <c r="N6" s="33"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="3"/>
+      <c r="R6" s="51">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="5.0999999999999996" customHeight="1">
       <c r="B7" s="9"/>
       <c r="D7" s="12"/>
       <c r="E7" s="41"/>
@@ -1193,10 +1443,12 @@
       <c r="K7" s="35"/>
       <c r="L7" s="35"/>
       <c r="M7" s="35"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="2:15" ht="5.0999999999999996" customHeight="1">
+      <c r="N7" s="33"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="3"/>
+      <c r="R7" s="50"/>
+    </row>
+    <row r="8" spans="2:18" ht="5.0999999999999996" customHeight="1">
       <c r="B8" s="9"/>
       <c r="D8" s="13"/>
       <c r="E8" s="41"/>
@@ -1208,10 +1460,12 @@
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
       <c r="M8" s="35"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="2:15">
+      <c r="N8" s="33"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="3"/>
+      <c r="R8" s="50"/>
+    </row>
+    <row r="9" spans="2:18">
       <c r="B9" s="9"/>
       <c r="D9" s="12">
         <v>3.9</v>
@@ -1225,10 +1479,14 @@
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="2:15" ht="5.0999999999999996" customHeight="1">
+      <c r="N9" s="33"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="3"/>
+      <c r="R9" s="52">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="5.0999999999999996" customHeight="1">
       <c r="B10" s="9"/>
       <c r="D10" s="12"/>
       <c r="E10" s="41"/>
@@ -1240,10 +1498,12 @@
       <c r="K10" s="35"/>
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="2:15" ht="5.0999999999999996" customHeight="1">
+      <c r="N10" s="33"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="3"/>
+      <c r="R10" s="50"/>
+    </row>
+    <row r="11" spans="2:18" ht="5.0999999999999996" customHeight="1">
       <c r="B11" s="9"/>
       <c r="D11" s="13"/>
       <c r="E11" s="41"/>
@@ -1255,10 +1515,12 @@
       <c r="K11" s="35"/>
       <c r="L11" s="35"/>
       <c r="M11" s="35"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="2:15">
+      <c r="N11" s="33"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="3"/>
+      <c r="R11" s="50"/>
+    </row>
+    <row r="12" spans="2:18">
       <c r="B12" s="9"/>
       <c r="D12" s="14" t="s">
         <v>1</v>
@@ -1272,10 +1534,14 @@
       <c r="K12" s="35"/>
       <c r="L12" s="35"/>
       <c r="M12" s="35"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="2:15" ht="5.0999999999999996" customHeight="1">
+      <c r="N12" s="33"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="3"/>
+      <c r="R12" s="50">
+        <v>46296</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="5.0999999999999996" customHeight="1">
       <c r="B13" s="9"/>
       <c r="D13" s="12"/>
       <c r="E13" s="41"/>
@@ -1287,10 +1553,12 @@
       <c r="K13" s="35"/>
       <c r="L13" s="35"/>
       <c r="M13" s="35"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="2:15" ht="5.0999999999999996" customHeight="1">
+      <c r="N13" s="33"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="3"/>
+      <c r="R13" s="50"/>
+    </row>
+    <row r="14" spans="2:18" ht="5.0999999999999996" customHeight="1">
       <c r="B14" s="9"/>
       <c r="D14" s="13"/>
       <c r="E14" s="41"/>
@@ -1302,10 +1570,12 @@
       <c r="K14" s="35"/>
       <c r="L14" s="35"/>
       <c r="M14" s="35"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="2:15">
+      <c r="N14" s="33"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="3"/>
+      <c r="R14" s="50"/>
+    </row>
+    <row r="15" spans="2:18">
       <c r="B15" s="9"/>
       <c r="D15" s="12">
         <v>3.11</v>
@@ -1319,10 +1589,14 @@
       <c r="K15" s="35"/>
       <c r="L15" s="35"/>
       <c r="M15" s="35"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="2:15" ht="5.0999999999999996" customHeight="1">
+      <c r="N15" s="33"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="3"/>
+      <c r="R15" s="50">
+        <v>46661</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="5.0999999999999996" customHeight="1">
       <c r="B16" s="9"/>
       <c r="D16" s="12"/>
       <c r="E16" s="41"/>
@@ -1334,10 +1608,12 @@
       <c r="K16" s="35"/>
       <c r="L16" s="35"/>
       <c r="M16" s="35"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="2:15" ht="5.0999999999999996" customHeight="1">
+      <c r="N16" s="33"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="3"/>
+      <c r="R16" s="50"/>
+    </row>
+    <row r="17" spans="2:18" ht="5.0999999999999996" customHeight="1">
       <c r="B17" s="9"/>
       <c r="D17" s="13"/>
       <c r="E17" s="41"/>
@@ -1349,10 +1625,12 @@
       <c r="K17" s="35"/>
       <c r="L17" s="35"/>
       <c r="M17" s="35"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="2:15">
+      <c r="N17" s="33"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="3"/>
+      <c r="R17" s="50"/>
+    </row>
+    <row r="18" spans="2:18">
       <c r="B18" s="9"/>
       <c r="D18" s="12">
         <v>3.12</v>
@@ -1366,10 +1644,14 @@
       <c r="K18" s="35"/>
       <c r="L18" s="35"/>
       <c r="M18" s="35"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="2:15" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="N18" s="33"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="3"/>
+      <c r="R18" s="50">
+        <v>47027</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B19" s="9"/>
       <c r="D19" s="12"/>
       <c r="E19" s="41"/>
@@ -1381,10 +1663,12 @@
       <c r="K19" s="35"/>
       <c r="L19" s="35"/>
       <c r="M19" s="35"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="2:15" ht="5.0999999999999996" customHeight="1">
+      <c r="N19" s="33"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="3"/>
+      <c r="R19" s="50"/>
+    </row>
+    <row r="20" spans="2:18" ht="5.0999999999999996" customHeight="1">
       <c r="B20" s="8"/>
       <c r="C20" s="43"/>
       <c r="D20" s="11"/>
@@ -1397,30 +1681,39 @@
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
       <c r="M20" s="34"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="2:15">
+      <c r="N20" s="31"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="3"/>
+      <c r="R20" s="50"/>
+    </row>
+    <row r="21" spans="2:18">
       <c r="B21" s="9" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D21" s="12">
         <v>8</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
       <c r="L21" s="32"/>
       <c r="M21" s="35"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="2:15" ht="5.0999999999999996" customHeight="1">
-      <c r="B22" s="9"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="3"/>
+      <c r="R21" s="50">
+        <v>47818</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="5.0999999999999996" customHeight="1">
+      <c r="B22" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="55"/>
       <c r="D22" s="12"/>
       <c r="E22" s="41"/>
       <c r="F22" s="35"/>
@@ -1431,11 +1724,14 @@
       <c r="K22" s="33"/>
       <c r="L22" s="32"/>
       <c r="M22" s="35"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="2:15" ht="5.0999999999999996" customHeight="1">
-      <c r="B23" s="9"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="3"/>
+      <c r="R22" s="50"/>
+    </row>
+    <row r="23" spans="2:18" ht="5.0999999999999996" customHeight="1">
+      <c r="B23" s="54"/>
+      <c r="C23" s="55"/>
       <c r="D23" s="13"/>
       <c r="E23" s="41"/>
       <c r="F23" s="35"/>
@@ -1446,27 +1742,34 @@
       <c r="K23" s="33"/>
       <c r="L23" s="32"/>
       <c r="M23" s="35"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="2:15">
-      <c r="B24" s="9"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="3"/>
+      <c r="R23" s="50"/>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="12">
         <v>11</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="2:15" ht="5.0999999999999996" customHeight="1">
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="3"/>
+      <c r="R24" s="50">
+        <v>48214</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" ht="5.0999999999999996" customHeight="1">
       <c r="B25" s="9"/>
       <c r="D25" s="12"/>
       <c r="E25" s="41"/>
@@ -1477,11 +1780,13 @@
       <c r="J25" s="32"/>
       <c r="K25" s="33"/>
       <c r="L25" s="32"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="2:15" ht="5.0999999999999996" customHeight="1">
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="3"/>
+      <c r="R25" s="50"/>
+    </row>
+    <row r="26" spans="2:18" ht="5.0999999999999996" customHeight="1">
       <c r="B26" s="9"/>
       <c r="D26" s="13"/>
       <c r="E26" s="41"/>
@@ -1492,28 +1797,34 @@
       <c r="J26" s="32"/>
       <c r="K26" s="33"/>
       <c r="L26" s="32"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="2:15">
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="3"/>
+      <c r="R26" s="50"/>
+    </row>
+    <row r="27" spans="2:18">
       <c r="B27" s="9"/>
       <c r="D27" s="14">
         <v>17</v>
       </c>
       <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
       <c r="K27" s="16"/>
       <c r="L27" s="32"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="2:15" ht="5.0999999999999996" customHeight="1">
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="3"/>
+      <c r="R27" s="50">
+        <v>47362</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" ht="5.0999999999999996" customHeight="1">
       <c r="B28" s="9"/>
       <c r="D28" s="12"/>
       <c r="E28" s="41"/>
@@ -1524,11 +1835,13 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
       <c r="L28" s="32"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="2:15" ht="5.0999999999999996" customHeight="1">
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="3"/>
+      <c r="R28" s="50"/>
+    </row>
+    <row r="29" spans="2:18" ht="5.0999999999999996" customHeight="1">
       <c r="B29" s="9"/>
       <c r="D29" s="13"/>
       <c r="E29" s="41"/>
@@ -1539,11 +1852,13 @@
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
       <c r="L29" s="32"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="2:15">
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="3"/>
+      <c r="R29" s="50"/>
+    </row>
+    <row r="30" spans="2:18">
       <c r="B30" s="9"/>
       <c r="D30" s="12">
         <v>21</v>
@@ -1551,16 +1866,20 @@
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
       <c r="M30" s="16"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="2:15" ht="5.0999999999999996" customHeight="1">
+      <c r="N30" s="16"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="3"/>
+      <c r="R30" s="50">
+        <v>48092</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" ht="5.0999999999999996" customHeight="1">
       <c r="B31" s="9"/>
       <c r="D31" s="12"/>
       <c r="E31" s="41"/>
@@ -1572,10 +1891,12 @@
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="2:15" ht="5.0999999999999996" customHeight="1">
+      <c r="N31" s="16"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="3"/>
+      <c r="R31" s="50"/>
+    </row>
+    <row r="32" spans="2:18" ht="5.0999999999999996" customHeight="1">
       <c r="B32" s="9"/>
       <c r="D32" s="13"/>
       <c r="E32" s="41"/>
@@ -1587,13 +1908,15 @@
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="N32" s="16"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="3"/>
+      <c r="R32" s="50"/>
+    </row>
+    <row r="33" spans="1:18">
       <c r="B33" s="9"/>
-      <c r="D33" s="12" t="s">
-        <v>27</v>
+      <c r="D33" s="65">
+        <v>22</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="35"/>
@@ -1604,110 +1927,130 @@
       <c r="K33" s="16"/>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="1:15" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B34" s="10"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="1:15" ht="5.0999999999999996" customHeight="1">
+      <c r="N33" s="16"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="3"/>
+      <c r="R33" s="51">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="5.0999999999999996" customHeight="1">
+      <c r="B34" s="9"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="3"/>
+      <c r="R34" s="50"/>
+    </row>
+    <row r="35" spans="1:18" ht="5.0999999999999996" customHeight="1">
       <c r="B35" s="9"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="13"/>
       <c r="E35" s="41"/>
       <c r="F35" s="35"/>
       <c r="G35" s="35"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="31"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="33"/>
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="B36" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="48">
-        <v>18</v>
-      </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="3"/>
-    </row>
-    <row r="37" spans="1:15" ht="5.0999999999999996" customHeight="1">
-      <c r="A37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="3"/>
-    </row>
-    <row r="38" spans="1:15" ht="5.0999999999999996" customHeight="1">
+      <c r="N35" s="16"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="3"/>
+      <c r="R35" s="50"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="B36" s="9"/>
+      <c r="D36" s="65">
+        <v>25</v>
+      </c>
+      <c r="E36" s="66"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="3"/>
+      <c r="R36" s="50">
+        <v>48823</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="B37" s="10"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="3"/>
+      <c r="R37" s="50"/>
+    </row>
+    <row r="38" spans="1:18" ht="5.0999999999999996" customHeight="1">
       <c r="B38" s="9"/>
-      <c r="D38" s="13"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="41"/>
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="33"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="31"/>
       <c r="J38" s="16"/>
       <c r="K38" s="16"/>
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="3"/>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="B39" s="9"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="3"/>
+      <c r="R38" s="50"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="B39" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="D39" s="48">
-        <v>20</v>
-      </c>
-      <c r="E39" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="E39" s="19"/>
       <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="35"/>
       <c r="I39" s="33"/>
       <c r="J39" s="16"/>
       <c r="K39" s="16"/>
       <c r="L39" s="16"/>
       <c r="M39" s="16"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="1:15" ht="5.0999999999999996" customHeight="1">
+      <c r="N39" s="16"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="3"/>
+      <c r="R39" s="51">
+        <v>45777</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="5.0999999999999996" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B40" s="9"/>
       <c r="D40" s="12"/>
       <c r="E40" s="41"/>
@@ -1719,10 +2062,12 @@
       <c r="K40" s="16"/>
       <c r="L40" s="16"/>
       <c r="M40" s="16"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="1:15" ht="5.0999999999999996" customHeight="1">
+      <c r="N40" s="16"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="3"/>
+      <c r="R40" s="50"/>
+    </row>
+    <row r="41" spans="1:18" ht="5.0999999999999996" customHeight="1">
       <c r="B41" s="9"/>
       <c r="D41" s="13"/>
       <c r="E41" s="41"/>
@@ -1734,27 +2079,33 @@
       <c r="K41" s="16"/>
       <c r="L41" s="16"/>
       <c r="M41" s="16"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="N41" s="16"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="3"/>
+      <c r="R41" s="50"/>
+    </row>
+    <row r="42" spans="1:18">
       <c r="B42" s="9"/>
-      <c r="D42" s="49">
-        <v>21</v>
-      </c>
-      <c r="E42" s="19"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
+      <c r="D42" s="48">
+        <v>20</v>
+      </c>
+      <c r="E42" s="20"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="16"/>
       <c r="I42" s="33"/>
       <c r="J42" s="16"/>
       <c r="K42" s="16"/>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="1:15" ht="5.0999999999999996" customHeight="1">
+      <c r="N42" s="16"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="3"/>
+      <c r="R42" s="50">
+        <v>46142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="5.0999999999999996" customHeight="1">
       <c r="B43" s="9"/>
       <c r="D43" s="12"/>
       <c r="E43" s="41"/>
@@ -1766,10 +2117,12 @@
       <c r="K43" s="16"/>
       <c r="L43" s="16"/>
       <c r="M43" s="16"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="1:15" ht="5.0999999999999996" customHeight="1">
+      <c r="N43" s="16"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="3"/>
+      <c r="R43" s="50"/>
+    </row>
+    <row r="44" spans="1:18" ht="5.0999999999999996" customHeight="1">
       <c r="B44" s="9"/>
       <c r="D44" s="13"/>
       <c r="E44" s="41"/>
@@ -1781,27 +2134,33 @@
       <c r="K44" s="16"/>
       <c r="L44" s="16"/>
       <c r="M44" s="16"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="N44" s="16"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="3"/>
+      <c r="R44" s="50"/>
+    </row>
+    <row r="45" spans="1:18">
       <c r="B45" s="9"/>
       <c r="D45" s="49">
-        <v>22</v>
-      </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="E45" s="19"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="33"/>
       <c r="J45" s="16"/>
       <c r="K45" s="16"/>
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="1:15" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="N45" s="16"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="3"/>
+      <c r="R45" s="51">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="5.0999999999999996" customHeight="1">
       <c r="B46" s="9"/>
       <c r="D46" s="12"/>
       <c r="E46" s="41"/>
@@ -1813,45 +2172,50 @@
       <c r="K46" s="16"/>
       <c r="L46" s="16"/>
       <c r="M46" s="16"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="1:15" ht="5.0999999999999996" customHeight="1">
-      <c r="B47" s="8"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="B48" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="12">
-        <v>8.1</v>
-      </c>
-      <c r="E48" s="19"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="33"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="3"/>
+      <c r="R46" s="50"/>
+    </row>
+    <row r="47" spans="1:18" ht="5.0999999999999996" customHeight="1">
+      <c r="B47" s="9"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="3"/>
+      <c r="R47" s="50"/>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="B48" s="9"/>
+      <c r="D48" s="49">
+        <v>22</v>
+      </c>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="16"/>
       <c r="J48" s="16"/>
       <c r="K48" s="16"/>
       <c r="L48" s="16"/>
       <c r="M48" s="16"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="2:15" ht="5.0999999999999996" customHeight="1">
+      <c r="N48" s="16"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="3"/>
+      <c r="R48" s="50">
+        <v>46507</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B49" s="9"/>
       <c r="D49" s="12"/>
       <c r="E49" s="41"/>
@@ -1863,42 +2227,53 @@
       <c r="K49" s="16"/>
       <c r="L49" s="16"/>
       <c r="M49" s="16"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="2:15" ht="5.0999999999999996" customHeight="1">
-      <c r="B50" s="9"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="2:15">
-      <c r="B51" s="9"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="3"/>
+      <c r="R49" s="50"/>
+    </row>
+    <row r="50" spans="2:18" ht="5.0999999999999996" customHeight="1">
+      <c r="B50" s="8"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="3"/>
+      <c r="R50" s="50"/>
+    </row>
+    <row r="51" spans="2:18">
+      <c r="B51" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="D51" s="12">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E51" s="20"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="16"/>
+        <v>8.1</v>
+      </c>
+      <c r="E51" s="19"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="35"/>
       <c r="H51" s="35"/>
       <c r="I51" s="33"/>
       <c r="J51" s="16"/>
       <c r="K51" s="16"/>
       <c r="L51" s="16"/>
       <c r="M51" s="16"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="2:15" ht="5.0999999999999996" customHeight="1">
+      <c r="N51" s="16"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="3"/>
+      <c r="R51" s="51">
+        <v>45621</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" ht="5.0999999999999996" customHeight="1">
       <c r="B52" s="9"/>
       <c r="D52" s="12"/>
       <c r="E52" s="41"/>
@@ -1910,10 +2285,12 @@
       <c r="K52" s="16"/>
       <c r="L52" s="16"/>
       <c r="M52" s="16"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="2:15" ht="5.0999999999999996" customHeight="1">
+      <c r="N52" s="16"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="3"/>
+      <c r="R52" s="50"/>
+    </row>
+    <row r="53" spans="2:18" ht="5.0999999999999996" customHeight="1">
       <c r="B53" s="9"/>
       <c r="D53" s="13"/>
       <c r="E53" s="41"/>
@@ -1925,45 +2302,52 @@
       <c r="K53" s="16"/>
       <c r="L53" s="16"/>
       <c r="M53" s="16"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="2:15">
+      <c r="N53" s="16"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="3"/>
+      <c r="R53" s="50"/>
+    </row>
+    <row r="54" spans="2:18">
       <c r="B54" s="9"/>
-      <c r="D54" s="14">
-        <v>8.3000000000000007</v>
+      <c r="D54" s="12">
+        <v>8.1999999999999993</v>
       </c>
       <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="16"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="35"/>
       <c r="I54" s="33"/>
       <c r="J54" s="16"/>
       <c r="K54" s="16"/>
       <c r="L54" s="16"/>
       <c r="M54" s="16"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="2:15" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B55" s="10"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="2:15" ht="5.0999999999999996" customHeight="1">
+      <c r="N54" s="16"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="3"/>
+      <c r="R54" s="52">
+        <v>45999</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" ht="5.0999999999999996" customHeight="1">
+      <c r="B55" s="9"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="3"/>
+      <c r="R55" s="50"/>
+    </row>
+    <row r="56" spans="2:18" ht="5.0999999999999996" customHeight="1">
       <c r="B56" s="9"/>
-      <c r="D56" s="12"/>
+      <c r="D56" s="13"/>
       <c r="E56" s="41"/>
       <c r="F56" s="35"/>
       <c r="G56" s="35"/>
@@ -1973,46 +2357,53 @@
       <c r="K56" s="16"/>
       <c r="L56" s="16"/>
       <c r="M56" s="16"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="2:15">
-      <c r="B57" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" s="12">
-        <v>3.1</v>
+      <c r="N56" s="16"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="3"/>
+      <c r="R56" s="50"/>
+    </row>
+    <row r="57" spans="2:18">
+      <c r="B57" s="9"/>
+      <c r="D57" s="14">
+        <v>8.3000000000000007</v>
       </c>
       <c r="E57" s="20"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="35"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="16"/>
       <c r="I57" s="33"/>
       <c r="J57" s="16"/>
       <c r="K57" s="16"/>
       <c r="L57" s="16"/>
       <c r="M57" s="16"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="2:15" ht="5.0999999999999996" customHeight="1">
-      <c r="B58" s="9"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="2:15" ht="5.0999999999999996" customHeight="1">
+      <c r="N57" s="16"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="3"/>
+      <c r="R57" s="50">
+        <v>46349</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="B58" s="10"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="3"/>
+      <c r="R58" s="50"/>
+    </row>
+    <row r="59" spans="2:18" ht="5.0999999999999996" customHeight="1">
       <c r="B59" s="9"/>
-      <c r="D59" s="13"/>
+      <c r="D59" s="12"/>
       <c r="E59" s="41"/>
       <c r="F59" s="35"/>
       <c r="G59" s="35"/>
@@ -2022,124 +2413,145 @@
       <c r="K59" s="16"/>
       <c r="L59" s="16"/>
       <c r="M59" s="16"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="2:15">
-      <c r="B60" s="9"/>
-      <c r="D60" s="14">
-        <v>3.2</v>
+      <c r="N59" s="16"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="3"/>
+      <c r="R59" s="50"/>
+    </row>
+    <row r="60" spans="2:18">
+      <c r="B60" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="12">
+        <v>3.1</v>
       </c>
       <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="16"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="35"/>
       <c r="I60" s="33"/>
       <c r="J60" s="16"/>
       <c r="K60" s="16"/>
       <c r="L60" s="16"/>
       <c r="M60" s="16"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="2:15" ht="5.0999999999999996" customHeight="1">
+      <c r="N60" s="16"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="3"/>
+      <c r="R60" s="51">
+        <v>45747</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" ht="5.0999999999999996" customHeight="1">
       <c r="B61" s="9"/>
       <c r="D61" s="12"/>
       <c r="E61" s="41"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="32"/>
       <c r="H61" s="35"/>
       <c r="I61" s="33"/>
       <c r="J61" s="16"/>
       <c r="K61" s="16"/>
       <c r="L61" s="16"/>
       <c r="M61" s="16"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="2:15" ht="5.0999999999999996" customHeight="1">
+      <c r="N61" s="16"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="3"/>
+      <c r="R61" s="50"/>
+    </row>
+    <row r="62" spans="2:18" ht="5.0999999999999996" customHeight="1">
       <c r="B62" s="9"/>
       <c r="D62" s="13"/>
       <c r="E62" s="41"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="32"/>
       <c r="H62" s="35"/>
       <c r="I62" s="33"/>
       <c r="J62" s="16"/>
       <c r="K62" s="16"/>
       <c r="L62" s="16"/>
       <c r="M62" s="16"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="2:15">
+      <c r="N62" s="16"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="3"/>
+      <c r="R62" s="50"/>
+    </row>
+    <row r="63" spans="2:18">
       <c r="B63" s="9"/>
-      <c r="D63" s="12">
-        <v>3.3</v>
+      <c r="D63" s="14">
+        <v>3.2</v>
       </c>
       <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="16"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="33"/>
       <c r="J63" s="16"/>
       <c r="K63" s="16"/>
       <c r="L63" s="16"/>
       <c r="M63" s="16"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="2:15" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="N63" s="16"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="3"/>
+      <c r="R63" s="50">
+        <v>46112</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18" ht="5.0999999999999996" customHeight="1">
       <c r="B64" s="9"/>
       <c r="D64" s="12"/>
       <c r="E64" s="41"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="16"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="33"/>
       <c r="J64" s="16"/>
       <c r="K64" s="16"/>
       <c r="L64" s="16"/>
       <c r="M64" s="16"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" ht="5.0999999999999996" customHeight="1">
-      <c r="B65" s="8"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15">
-      <c r="B66" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>7</v>
+      <c r="N64" s="16"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="3"/>
+      <c r="R64" s="50"/>
+    </row>
+    <row r="65" spans="2:18" ht="5.0999999999999996" customHeight="1">
+      <c r="B65" s="9"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="3"/>
+      <c r="R65" s="50"/>
+    </row>
+    <row r="66" spans="2:18">
+      <c r="B66" s="9"/>
+      <c r="D66" s="12">
+        <v>3.3</v>
       </c>
       <c r="E66" s="20"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="33"/>
+      <c r="F66" s="60"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="19"/>
       <c r="I66" s="16"/>
       <c r="J66" s="16"/>
       <c r="K66" s="16"/>
       <c r="L66" s="16"/>
       <c r="M66" s="16"/>
-      <c r="N66" s="12"/>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" ht="5.0999999999999996" customHeight="1">
+      <c r="N66" s="16"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="3"/>
+      <c r="R66" s="50">
+        <v>46477</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B67" s="9"/>
       <c r="D67" s="12"/>
       <c r="E67" s="41"/>
@@ -2151,42 +2563,53 @@
       <c r="K67" s="16"/>
       <c r="L67" s="16"/>
       <c r="M67" s="16"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" ht="5.0999999999999996" customHeight="1">
-      <c r="B68" s="9"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15">
-      <c r="B69" s="9"/>
-      <c r="D69" s="14" t="s">
-        <v>8</v>
+      <c r="N67" s="16"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="3"/>
+      <c r="R67" s="50"/>
+    </row>
+    <row r="68" spans="2:18" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B68" s="8"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="3"/>
+      <c r="R68" s="50"/>
+    </row>
+    <row r="69" spans="2:18" hidden="1" outlineLevel="1">
+      <c r="B69" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="16"/>
+      <c r="F69" s="61"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="33"/>
       <c r="I69" s="16"/>
       <c r="J69" s="16"/>
       <c r="K69" s="16"/>
       <c r="L69" s="16"/>
       <c r="M69" s="16"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" ht="5.0999999999999996" customHeight="1">
+      <c r="N69" s="16"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="3"/>
+      <c r="R69" s="51">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
       <c r="B70" s="9"/>
       <c r="D70" s="12"/>
       <c r="E70" s="41"/>
@@ -2198,42 +2621,53 @@
       <c r="K70" s="16"/>
       <c r="L70" s="16"/>
       <c r="M70" s="16"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" ht="5.0999999999999996" customHeight="1">
-      <c r="B71" s="9"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="33"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15">
-      <c r="B72" s="9"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="3"/>
+      <c r="R70" s="50"/>
+    </row>
+    <row r="71" spans="2:18" ht="5.0999999999999996" customHeight="1" collapsed="1">
+      <c r="B71" s="8"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="64"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="3"/>
+      <c r="R71" s="50"/>
+    </row>
+    <row r="72" spans="2:18">
+      <c r="B72" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D72" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="E72" s="58"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="57"/>
       <c r="H72" s="16"/>
       <c r="I72" s="16"/>
       <c r="J72" s="16"/>
       <c r="K72" s="16"/>
       <c r="L72" s="16"/>
       <c r="M72" s="16"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" ht="5.0999999999999996" customHeight="1">
+      <c r="N72" s="16"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="3"/>
+      <c r="R72" s="53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" ht="5.0999999999999996" customHeight="1">
       <c r="B73" s="9"/>
       <c r="D73" s="12"/>
       <c r="E73" s="41"/>
@@ -2245,10 +2679,12 @@
       <c r="K73" s="16"/>
       <c r="L73" s="16"/>
       <c r="M73" s="16"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" ht="5.0999999999999996" customHeight="1">
+      <c r="N73" s="16"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="3"/>
+      <c r="R73" s="50"/>
+    </row>
+    <row r="74" spans="2:18" ht="5.0999999999999996" customHeight="1">
       <c r="B74" s="9"/>
       <c r="D74" s="13"/>
       <c r="E74" s="41"/>
@@ -2260,81 +2696,93 @@
       <c r="K74" s="16"/>
       <c r="L74" s="16"/>
       <c r="M74" s="16"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15">
+      <c r="N74" s="16"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="3"/>
+      <c r="R74" s="50"/>
+    </row>
+    <row r="75" spans="2:18">
       <c r="B75" s="9"/>
-      <c r="D75" s="12" t="s">
-        <v>26</v>
+      <c r="D75" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="19"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="57"/>
       <c r="H75" s="16"/>
       <c r="I75" s="16"/>
       <c r="J75" s="16"/>
       <c r="K75" s="16"/>
       <c r="L75" s="16"/>
       <c r="M75" s="16"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B76" s="10"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="21"/>
-      <c r="M76" s="21"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" ht="5.0999999999999996" customHeight="1">
+      <c r="N75" s="16"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="3"/>
+      <c r="R75" s="53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" ht="5.0999999999999996" customHeight="1">
+      <c r="B76" s="9"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="3"/>
+      <c r="R76" s="50"/>
+    </row>
+    <row r="77" spans="2:18" ht="5.0999999999999996" customHeight="1">
       <c r="B77" s="9"/>
-      <c r="D77" s="12"/>
+      <c r="D77" s="13"/>
       <c r="E77" s="41"/>
       <c r="F77" s="33"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="33"/>
       <c r="I77" s="16"/>
       <c r="J77" s="16"/>
       <c r="K77" s="16"/>
       <c r="L77" s="16"/>
       <c r="M77" s="16"/>
-      <c r="N77" s="12"/>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="78" spans="2:15">
-      <c r="B78" s="9" t="s">
-        <v>5</v>
-      </c>
+      <c r="N77" s="16"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="3"/>
+      <c r="R77" s="50"/>
+    </row>
+    <row r="78" spans="2:18">
+      <c r="B78" s="9"/>
       <c r="D78" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E78" s="20"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
+      <c r="F78" s="56"/>
+      <c r="G78" s="57"/>
       <c r="H78" s="16"/>
       <c r="I78" s="16"/>
       <c r="J78" s="16"/>
       <c r="K78" s="16"/>
       <c r="L78" s="16"/>
       <c r="M78" s="16"/>
-      <c r="N78" s="12"/>
-    </row>
-    <row r="79" spans="2:15" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="N78" s="16"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="3"/>
+      <c r="R78" s="53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B79" s="10"/>
       <c r="C79" s="44"/>
       <c r="D79" s="15"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="38"/>
       <c r="G79" s="21"/>
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
@@ -2342,31 +2790,100 @@
       <c r="K79" s="21"/>
       <c r="L79" s="21"/>
       <c r="M79" s="21"/>
-      <c r="N79" s="15"/>
-      <c r="O79" s="3"/>
-    </row>
-    <row r="80" spans="2:15" ht="5.0999999999999996" customHeight="1">
-      <c r="D80" s="16"/>
-      <c r="O80" s="3"/>
-    </row>
-    <row r="81" spans="5:6">
-      <c r="E81" s="2"/>
-      <c r="F81" s="4" t="s">
+      <c r="N79" s="21"/>
+      <c r="O79" s="15"/>
+      <c r="P79" s="3"/>
+      <c r="R79" s="50"/>
+    </row>
+    <row r="80" spans="2:18" ht="5.0999999999999996" customHeight="1">
+      <c r="B80" s="9"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="16"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="3"/>
+      <c r="R80" s="50"/>
+    </row>
+    <row r="81" spans="2:18">
+      <c r="B81" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" s="20"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="12"/>
+      <c r="R81" s="51">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="82" spans="2:18" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="B82" s="10"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="21"/>
+      <c r="N82" s="21"/>
+      <c r="O82" s="15"/>
+      <c r="P82" s="3"/>
+      <c r="R82" s="50"/>
+    </row>
+    <row r="83" spans="2:18" ht="5.0999999999999996" customHeight="1">
+      <c r="D83" s="16"/>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="2:18">
+      <c r="B84" s="2"/>
+      <c r="C84" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="2:18">
+      <c r="B85" s="25"/>
+      <c r="C85" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="5:6">
-      <c r="E82" s="25"/>
-      <c r="F82" s="4" t="s">
-        <v>25</v>
-      </c>
+    <row r="86" spans="2:18">
+      <c r="B86" s="59"/>
+      <c r="C86" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D86" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B22:C24"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D12 D69 D66 D75 D72 D33 D78" numberStoredAsText="1"/>
+    <ignoredError sqref="D12 D72 D69 D78 D75 D81" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/20231007_Python と Java と Go と Node.js と PHP と Rupy のサポート状況/123_PythonSupport.xlsx
+++ b/20231007_Python と Java と Go と Node.js と PHP と Rupy のサポート状況/123_PythonSupport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20231007_Python と Java と Go と Node.js と PHP と Rupy のサポート状況\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878C422D-56C0-436C-B263-18B0265BDE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0B8EB4-22C8-4E01-A07F-FC22D65A56B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47505" yWindow="1125" windowWidth="19695" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Python</t>
     <phoneticPr fontId="1"/>
@@ -56,10 +56,6 @@
   </si>
   <si>
     <t>1.19</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.20</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -229,7 +225,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5.5</t>
+    <t>5.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.7</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -337,7 +341,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -762,11 +766,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -922,59 +937,62 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1256,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q98"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P93" sqref="P93"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA42" sqref="AA42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -1281,7 +1299,7 @@
       <c r="E2" s="27"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -1293,43 +1311,43 @@
     </row>
     <row r="3" spans="2:17" ht="16.5" thickBot="1">
       <c r="E3" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="H3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="I3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="J3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="K3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="L3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="M3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="N3" s="26" t="s">
         <v>19</v>
-      </c>
-      <c r="N3" s="26" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="16.5" thickBot="1">
       <c r="B4" s="43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="5">
         <v>2024</v>
@@ -1362,7 +1380,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="5.0999999999999996" customHeight="1">
+    <row r="5" spans="2:17" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B5" s="8"/>
       <c r="C5" s="41"/>
       <c r="D5" s="11"/>
@@ -1378,7 +1396,7 @@
       <c r="N5" s="34"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:17" hidden="1" outlineLevel="1">
       <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
@@ -1400,7 +1418,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="5.0999999999999996" customHeight="1">
+    <row r="7" spans="2:17" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B7" s="9"/>
       <c r="D7" s="12"/>
       <c r="E7" s="39"/>
@@ -1416,7 +1434,7 @@
       <c r="O7" s="3"/>
       <c r="Q7" s="48"/>
     </row>
-    <row r="8" spans="2:17" ht="5.0999999999999996" customHeight="1">
+    <row r="8" spans="2:17" ht="5.0999999999999996" customHeight="1" collapsed="1">
       <c r="B8" s="9"/>
       <c r="D8" s="13"/>
       <c r="E8" s="39"/>
@@ -1433,12 +1451,14 @@
       <c r="Q8" s="48"/>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>0</v>
+      </c>
       <c r="D9" s="12">
         <v>3.9</v>
       </c>
       <c r="E9" s="18"/>
-      <c r="F9" s="63"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="30"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
@@ -1490,8 +1510,8 @@
         <v>1</v>
       </c>
       <c r="E12" s="18"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="30"/>
       <c r="I12" s="33"/>
       <c r="J12" s="33"/>
@@ -1541,10 +1561,10 @@
       <c r="D15" s="12">
         <v>3.11</v>
       </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
       <c r="I15" s="30"/>
       <c r="J15" s="33"/>
       <c r="K15" s="33"/>
@@ -1591,13 +1611,13 @@
     <row r="18" spans="2:17">
       <c r="B18" s="9"/>
       <c r="D18" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="64"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
+        <v>31</v>
+      </c>
+      <c r="E18" s="61"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
       <c r="J18" s="30"/>
       <c r="K18" s="33"/>
       <c r="L18" s="33"/>
@@ -1642,15 +1662,15 @@
     </row>
     <row r="21" spans="2:17">
       <c r="B21" s="9"/>
-      <c r="D21" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="62"/>
+      <c r="D21" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="57"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="59"/>
       <c r="K21" s="33"/>
       <c r="L21" s="33"/>
       <c r="M21" s="33"/>
@@ -1693,18 +1713,18 @@
     </row>
     <row r="24" spans="2:17">
       <c r="B24" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="12">
         <v>8</v>
       </c>
-      <c r="E24" s="66"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
       <c r="L24" s="30"/>
       <c r="M24" s="33"/>
       <c r="N24" s="35"/>
@@ -1714,10 +1734,10 @@
       </c>
     </row>
     <row r="25" spans="2:17" ht="5.0999999999999996" customHeight="1">
-      <c r="B25" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="56"/>
+      <c r="B25" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="71"/>
       <c r="D25" s="12"/>
       <c r="E25" s="39"/>
       <c r="F25" s="33"/>
@@ -1733,8 +1753,8 @@
       <c r="Q25" s="48"/>
     </row>
     <row r="26" spans="2:17" ht="5.0999999999999996" customHeight="1">
-      <c r="B26" s="55"/>
-      <c r="C26" s="56"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="13"/>
       <c r="E26" s="39"/>
       <c r="F26" s="33"/>
@@ -1750,20 +1770,20 @@
       <c r="Q26" s="48"/>
     </row>
     <row r="27" spans="2:17">
-      <c r="B27" s="55"/>
-      <c r="C27" s="56"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="71"/>
       <c r="D27" s="12">
         <v>11</v>
       </c>
       <c r="E27" s="18"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
       <c r="N27" s="12"/>
       <c r="O27" s="3"/>
       <c r="Q27" s="48">
@@ -1781,7 +1801,7 @@
       <c r="J28" s="30"/>
       <c r="K28" s="31"/>
       <c r="L28" s="30"/>
-      <c r="M28" s="68"/>
+      <c r="M28" s="16"/>
       <c r="N28" s="12"/>
       <c r="O28" s="3"/>
       <c r="Q28" s="48"/>
@@ -1797,7 +1817,7 @@
       <c r="J29" s="30"/>
       <c r="K29" s="31"/>
       <c r="L29" s="30"/>
-      <c r="M29" s="68"/>
+      <c r="M29" s="16"/>
       <c r="N29" s="12"/>
       <c r="O29" s="3"/>
       <c r="Q29" s="48"/>
@@ -1807,15 +1827,15 @@
       <c r="D30" s="14">
         <v>17</v>
       </c>
-      <c r="E30" s="64"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="68"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="16"/>
       <c r="L30" s="30"/>
-      <c r="M30" s="68"/>
+      <c r="M30" s="16"/>
       <c r="N30" s="12"/>
       <c r="O30" s="3"/>
       <c r="Q30" s="48">
@@ -1830,10 +1850,10 @@
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
       <c r="I31" s="31"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
       <c r="L31" s="30"/>
-      <c r="M31" s="68"/>
+      <c r="M31" s="16"/>
       <c r="N31" s="12"/>
       <c r="O31" s="3"/>
       <c r="Q31" s="48"/>
@@ -1846,35 +1866,35 @@
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
       <c r="I32" s="31"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
       <c r="L32" s="30"/>
-      <c r="M32" s="68"/>
+      <c r="M32" s="16"/>
       <c r="N32" s="12"/>
       <c r="O32" s="3"/>
       <c r="Q32" s="48"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="2:17">
       <c r="B33" s="9"/>
       <c r="D33" s="12">
         <v>21</v>
       </c>
-      <c r="E33" s="64"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="68"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="16"/>
       <c r="N33" s="12"/>
       <c r="O33" s="3"/>
       <c r="Q33" s="48">
         <v>48092</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="5.0999999999999996" customHeight="1">
+    <row r="34" spans="2:17" ht="5.0999999999999996" customHeight="1">
       <c r="B34" s="9"/>
       <c r="D34" s="12"/>
       <c r="E34" s="39"/>
@@ -1882,15 +1902,15 @@
       <c r="G34" s="33"/>
       <c r="H34" s="33"/>
       <c r="I34" s="31"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
       <c r="N34" s="12"/>
       <c r="O34" s="3"/>
       <c r="Q34" s="48"/>
     </row>
-    <row r="35" spans="1:17" ht="5.0999999999999996" customHeight="1">
+    <row r="35" spans="2:17" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B35" s="9"/>
       <c r="D35" s="13"/>
       <c r="E35" s="39"/>
@@ -1898,35 +1918,35 @@
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
       <c r="I35" s="31"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="68"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
       <c r="N35" s="12"/>
       <c r="O35" s="3"/>
       <c r="Q35" s="48"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="2:17" hidden="1" outlineLevel="1">
       <c r="B36" s="9"/>
       <c r="D36" s="46">
         <v>22</v>
       </c>
-      <c r="E36" s="64"/>
+      <c r="E36" s="61"/>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
       <c r="I36" s="31"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="68"/>
-      <c r="M36" s="68"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
       <c r="N36" s="12"/>
       <c r="O36" s="3"/>
       <c r="Q36" s="49">
         <v>45536</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="5.0999999999999996" customHeight="1">
+    <row r="37" spans="2:17" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B37" s="9"/>
       <c r="D37" s="12"/>
       <c r="E37" s="39"/>
@@ -1934,15 +1954,15 @@
       <c r="G37" s="33"/>
       <c r="H37" s="33"/>
       <c r="I37" s="31"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
-      <c r="M37" s="68"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
       <c r="N37" s="12"/>
       <c r="O37" s="3"/>
       <c r="Q37" s="48"/>
     </row>
-    <row r="38" spans="1:17" ht="5.0999999999999996" customHeight="1">
+    <row r="38" spans="2:17" ht="5.0999999999999996" customHeight="1" collapsed="1">
       <c r="B38" s="9"/>
       <c r="D38" s="13"/>
       <c r="E38" s="39"/>
@@ -1950,33 +1970,35 @@
       <c r="G38" s="33"/>
       <c r="H38" s="33"/>
       <c r="I38" s="31"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
-      <c r="M38" s="68"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
       <c r="N38" s="12"/>
       <c r="O38" s="3"/>
       <c r="Q38" s="48"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="2:17">
       <c r="B39" s="9"/>
-      <c r="D39" s="59">
+      <c r="D39" s="72">
         <v>23</v>
       </c>
-      <c r="E39" s="69"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="33"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="30"/>
       <c r="H39" s="33"/>
       <c r="I39" s="31"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="68"/>
-      <c r="M39" s="68"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
       <c r="N39" s="12"/>
       <c r="O39" s="3"/>
-      <c r="Q39" s="48"/>
-    </row>
-    <row r="40" spans="1:17" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="Q39" s="49">
+        <v>45747</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B40" s="10"/>
       <c r="C40" s="42"/>
       <c r="D40" s="15"/>
@@ -1993,259 +2015,260 @@
       <c r="O40" s="3"/>
       <c r="Q40" s="48"/>
     </row>
-    <row r="41" spans="1:17" ht="5.0999999999999996" customHeight="1">
-      <c r="B41" s="9"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
+    <row r="41" spans="2:17" ht="5.0999999999999996" customHeight="1">
+      <c r="B41" s="8"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
       <c r="H41" s="32"/>
       <c r="I41" s="29"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="68"/>
-      <c r="M41" s="68"/>
-      <c r="N41" s="12"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="11"/>
       <c r="O41" s="3"/>
       <c r="Q41" s="48"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="2:17">
       <c r="B42" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="46">
-        <v>18</v>
-      </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="68"/>
+        <v>4</v>
+      </c>
+      <c r="D42" s="12">
+        <v>3.1</v>
+      </c>
+      <c r="E42" s="61"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="16"/>
       <c r="H42" s="33"/>
       <c r="I42" s="31"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="68"/>
-      <c r="M42" s="68"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
       <c r="N42" s="12"/>
       <c r="O42" s="3"/>
       <c r="Q42" s="49">
-        <v>45777</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="5.0999999999999996" customHeight="1">
-      <c r="A43" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>45747</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" ht="5.0999999999999996" customHeight="1">
       <c r="B43" s="9"/>
       <c r="D43" s="12"/>
       <c r="E43" s="39"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="30"/>
       <c r="H43" s="33"/>
       <c r="I43" s="31"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="68"/>
-      <c r="M43" s="68"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
       <c r="N43" s="12"/>
       <c r="O43" s="3"/>
       <c r="Q43" s="48"/>
     </row>
-    <row r="44" spans="1:17" ht="5.0999999999999996" customHeight="1">
+    <row r="44" spans="2:17" ht="5.0999999999999996" customHeight="1">
       <c r="B44" s="9"/>
       <c r="D44" s="13"/>
       <c r="E44" s="39"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="30"/>
       <c r="H44" s="33"/>
       <c r="I44" s="31"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="68"/>
-      <c r="L44" s="68"/>
-      <c r="M44" s="68"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
       <c r="N44" s="12"/>
       <c r="O44" s="3"/>
       <c r="Q44" s="48"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="2:17">
       <c r="B45" s="9"/>
-      <c r="D45" s="46">
-        <v>20</v>
-      </c>
-      <c r="E45" s="64"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="63"/>
-      <c r="H45" s="68"/>
+      <c r="D45" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="E45" s="61"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="16"/>
       <c r="I45" s="31"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="68"/>
-      <c r="M45" s="68"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
       <c r="N45" s="12"/>
       <c r="O45" s="3"/>
       <c r="Q45" s="48">
-        <v>46142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="5.0999999999999996" customHeight="1">
+        <v>46112</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" ht="5.0999999999999996" customHeight="1">
       <c r="B46" s="9"/>
       <c r="D46" s="12"/>
       <c r="E46" s="39"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="30"/>
       <c r="H46" s="33"/>
       <c r="I46" s="31"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="68"/>
-      <c r="M46" s="68"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
       <c r="N46" s="12"/>
       <c r="O46" s="3"/>
       <c r="Q46" s="48"/>
     </row>
-    <row r="47" spans="1:17" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="47" spans="2:17" ht="5.0999999999999996" customHeight="1">
       <c r="B47" s="9"/>
       <c r="D47" s="13"/>
       <c r="E47" s="39"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="30"/>
       <c r="H47" s="33"/>
       <c r="I47" s="31"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="68"/>
-      <c r="M47" s="68"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
       <c r="N47" s="12"/>
       <c r="O47" s="3"/>
       <c r="Q47" s="48"/>
     </row>
-    <row r="48" spans="1:17" hidden="1" outlineLevel="1">
+    <row r="48" spans="2:17">
       <c r="B48" s="9"/>
-      <c r="D48" s="47">
-        <v>21</v>
-      </c>
-      <c r="E48" s="18"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="68"/>
-      <c r="M48" s="68"/>
+      <c r="D48" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="61"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
       <c r="N48" s="12"/>
       <c r="O48" s="3"/>
-      <c r="Q48" s="49">
-        <v>45444</v>
-      </c>
-    </row>
-    <row r="49" spans="2:17" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="Q48" s="48">
+        <v>46112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="5.0999999999999996" customHeight="1">
       <c r="B49" s="9"/>
       <c r="D49" s="12"/>
       <c r="E49" s="39"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="30"/>
       <c r="H49" s="33"/>
       <c r="I49" s="31"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="68"/>
-      <c r="M49" s="68"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
       <c r="N49" s="12"/>
       <c r="O49" s="3"/>
       <c r="Q49" s="48"/>
     </row>
-    <row r="50" spans="2:17" ht="5.0999999999999996" customHeight="1" collapsed="1">
+    <row r="50" spans="1:17" ht="5.0999999999999996" customHeight="1">
       <c r="B50" s="9"/>
       <c r="D50" s="13"/>
       <c r="E50" s="39"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="30"/>
       <c r="H50" s="33"/>
       <c r="I50" s="31"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="68"/>
-      <c r="M50" s="68"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
       <c r="N50" s="12"/>
       <c r="O50" s="3"/>
       <c r="Q50" s="48"/>
     </row>
-    <row r="51" spans="2:17">
+    <row r="51" spans="1:17">
       <c r="B51" s="9"/>
-      <c r="D51" s="47">
-        <v>22</v>
-      </c>
-      <c r="E51" s="64"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="63"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="68"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="68"/>
-      <c r="L51" s="68"/>
-      <c r="M51" s="68"/>
+      <c r="D51" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" s="65"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
       <c r="N51" s="12"/>
       <c r="O51" s="3"/>
       <c r="Q51" s="48">
-        <v>46507</v>
-      </c>
-    </row>
-    <row r="52" spans="2:17" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B52" s="9"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="68"/>
-      <c r="L52" s="68"/>
-      <c r="M52" s="68"/>
-      <c r="N52" s="12"/>
+        <v>46477</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="B52" s="10"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="15"/>
       <c r="O52" s="3"/>
       <c r="Q52" s="48"/>
     </row>
-    <row r="53" spans="2:17" ht="5.0999999999999996" customHeight="1">
-      <c r="B53" s="8"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="11"/>
+    <row r="53" spans="1:17" ht="5.0999999999999996" customHeight="1">
+      <c r="B53" s="9"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="12"/>
       <c r="O53" s="3"/>
       <c r="Q53" s="48"/>
     </row>
-    <row r="54" spans="2:17">
+    <row r="54" spans="1:17">
       <c r="B54" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="12">
-        <v>8.1</v>
+        <v>2</v>
+      </c>
+      <c r="D54" s="46">
+        <v>18</v>
       </c>
       <c r="E54" s="18"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="33"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="16"/>
       <c r="H54" s="33"/>
       <c r="I54" s="31"/>
-      <c r="J54" s="68"/>
-      <c r="K54" s="68"/>
-      <c r="L54" s="68"/>
-      <c r="M54" s="68"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
       <c r="N54" s="12"/>
       <c r="O54" s="3"/>
       <c r="Q54" s="49">
-        <v>45621</v>
-      </c>
-    </row>
-    <row r="55" spans="2:17" ht="5.0999999999999996" customHeight="1">
+        <v>45777</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="5.0999999999999996" customHeight="1">
+      <c r="A55" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B55" s="9"/>
       <c r="D55" s="12"/>
       <c r="E55" s="39"/>
@@ -2253,15 +2276,15 @@
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
       <c r="I55" s="31"/>
-      <c r="J55" s="68"/>
-      <c r="K55" s="68"/>
-      <c r="L55" s="68"/>
-      <c r="M55" s="68"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
       <c r="N55" s="12"/>
       <c r="O55" s="3"/>
       <c r="Q55" s="48"/>
     </row>
-    <row r="56" spans="2:17" ht="5.0999999999999996" customHeight="1">
+    <row r="56" spans="1:17" ht="5.0999999999999996" customHeight="1">
       <c r="B56" s="9"/>
       <c r="D56" s="13"/>
       <c r="E56" s="39"/>
@@ -2269,35 +2292,35 @@
       <c r="G56" s="33"/>
       <c r="H56" s="33"/>
       <c r="I56" s="31"/>
-      <c r="J56" s="68"/>
-      <c r="K56" s="68"/>
-      <c r="L56" s="68"/>
-      <c r="M56" s="68"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
       <c r="N56" s="12"/>
       <c r="O56" s="3"/>
       <c r="Q56" s="48"/>
     </row>
-    <row r="57" spans="2:17">
+    <row r="57" spans="1:17">
       <c r="B57" s="9"/>
-      <c r="D57" s="12">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E57" s="64"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="33"/>
+      <c r="D57" s="46">
+        <v>20</v>
+      </c>
+      <c r="E57" s="61"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="16"/>
       <c r="I57" s="31"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="68"/>
-      <c r="M57" s="68"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
       <c r="N57" s="12"/>
       <c r="O57" s="3"/>
-      <c r="Q57" s="50">
-        <v>45999</v>
-      </c>
-    </row>
-    <row r="58" spans="2:17" ht="5.0999999999999996" customHeight="1">
+      <c r="Q57" s="48">
+        <v>46142</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="5.0999999999999996" customHeight="1">
       <c r="B58" s="9"/>
       <c r="D58" s="12"/>
       <c r="E58" s="39"/>
@@ -2305,15 +2328,15 @@
       <c r="G58" s="33"/>
       <c r="H58" s="33"/>
       <c r="I58" s="31"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="68"/>
-      <c r="L58" s="68"/>
-      <c r="M58" s="68"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
       <c r="N58" s="12"/>
       <c r="O58" s="3"/>
       <c r="Q58" s="48"/>
     </row>
-    <row r="59" spans="2:17" ht="5.0999999999999996" customHeight="1">
+    <row r="59" spans="1:17" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B59" s="9"/>
       <c r="D59" s="13"/>
       <c r="E59" s="39"/>
@@ -2321,35 +2344,35 @@
       <c r="G59" s="33"/>
       <c r="H59" s="33"/>
       <c r="I59" s="31"/>
-      <c r="J59" s="68"/>
-      <c r="K59" s="68"/>
-      <c r="L59" s="68"/>
-      <c r="M59" s="68"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
       <c r="N59" s="12"/>
       <c r="O59" s="3"/>
       <c r="Q59" s="48"/>
     </row>
-    <row r="60" spans="2:17">
+    <row r="60" spans="1:17" hidden="1" outlineLevel="1">
       <c r="B60" s="9"/>
-      <c r="D60" s="14">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E60" s="64"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="63"/>
-      <c r="H60" s="68"/>
+      <c r="D60" s="47">
+        <v>21</v>
+      </c>
+      <c r="E60" s="18"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
       <c r="I60" s="31"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="68"/>
-      <c r="M60" s="68"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
       <c r="N60" s="12"/>
       <c r="O60" s="3"/>
-      <c r="Q60" s="48">
-        <v>46349</v>
-      </c>
-    </row>
-    <row r="61" spans="2:17" ht="5.0999999999999996" customHeight="1">
+      <c r="Q60" s="49">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B61" s="9"/>
       <c r="D61" s="12"/>
       <c r="E61" s="39"/>
@@ -2357,15 +2380,15 @@
       <c r="G61" s="33"/>
       <c r="H61" s="33"/>
       <c r="I61" s="31"/>
-      <c r="J61" s="68"/>
-      <c r="K61" s="68"/>
-      <c r="L61" s="68"/>
-      <c r="M61" s="68"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
       <c r="N61" s="12"/>
       <c r="O61" s="3"/>
       <c r="Q61" s="48"/>
     </row>
-    <row r="62" spans="2:17" ht="5.0999999999999996" customHeight="1">
+    <row r="62" spans="1:17" ht="5.0999999999999996" customHeight="1" collapsed="1">
       <c r="B62" s="9"/>
       <c r="D62" s="13"/>
       <c r="E62" s="39"/>
@@ -2373,99 +2396,101 @@
       <c r="G62" s="33"/>
       <c r="H62" s="33"/>
       <c r="I62" s="31"/>
-      <c r="J62" s="68"/>
-      <c r="K62" s="68"/>
-      <c r="L62" s="68"/>
-      <c r="M62" s="68"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
       <c r="N62" s="12"/>
       <c r="O62" s="3"/>
       <c r="Q62" s="48"/>
     </row>
-    <row r="63" spans="2:17">
+    <row r="63" spans="1:17">
       <c r="B63" s="9"/>
-      <c r="D63" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="E63" s="69"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="58"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="68"/>
-      <c r="K63" s="68"/>
-      <c r="L63" s="68"/>
-      <c r="M63" s="68"/>
+      <c r="D63" s="47">
+        <v>22</v>
+      </c>
+      <c r="E63" s="61"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
       <c r="N63" s="12"/>
       <c r="O63" s="3"/>
-      <c r="Q63" s="48"/>
-    </row>
-    <row r="64" spans="2:17" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B64" s="10"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
-      <c r="N64" s="15"/>
+      <c r="Q63" s="48">
+        <v>46507</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="B64" s="9"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="12"/>
       <c r="O64" s="3"/>
       <c r="Q64" s="48"/>
     </row>
     <row r="65" spans="2:17" ht="5.0999999999999996" customHeight="1">
-      <c r="B65" s="9"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="68"/>
-      <c r="K65" s="68"/>
-      <c r="L65" s="68"/>
-      <c r="M65" s="68"/>
-      <c r="N65" s="12"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="11"/>
       <c r="O65" s="3"/>
       <c r="Q65" s="48"/>
     </row>
     <row r="66" spans="2:17">
       <c r="B66" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" s="12">
-        <v>3.1</v>
-      </c>
-      <c r="E66" s="64"/>
-      <c r="F66" s="63"/>
-      <c r="G66" s="68"/>
+        <v>8.1</v>
+      </c>
+      <c r="E66" s="18"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="33"/>
       <c r="H66" s="33"/>
       <c r="I66" s="31"/>
-      <c r="J66" s="68"/>
-      <c r="K66" s="68"/>
-      <c r="L66" s="68"/>
-      <c r="M66" s="68"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
       <c r="N66" s="12"/>
       <c r="O66" s="3"/>
       <c r="Q66" s="49">
-        <v>45747</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="67" spans="2:17" ht="5.0999999999999996" customHeight="1">
       <c r="B67" s="9"/>
       <c r="D67" s="12"/>
       <c r="E67" s="39"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="30"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
       <c r="H67" s="33"/>
       <c r="I67" s="31"/>
-      <c r="J67" s="68"/>
-      <c r="K67" s="68"/>
-      <c r="L67" s="68"/>
-      <c r="M67" s="68"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
       <c r="N67" s="12"/>
       <c r="O67" s="3"/>
       <c r="Q67" s="48"/>
@@ -2474,50 +2499,50 @@
       <c r="B68" s="9"/>
       <c r="D68" s="13"/>
       <c r="E68" s="39"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="30"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
       <c r="H68" s="33"/>
       <c r="I68" s="31"/>
-      <c r="J68" s="68"/>
-      <c r="K68" s="68"/>
-      <c r="L68" s="68"/>
-      <c r="M68" s="68"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
       <c r="N68" s="12"/>
       <c r="O68" s="3"/>
       <c r="Q68" s="48"/>
     </row>
     <row r="69" spans="2:17">
       <c r="B69" s="9"/>
-      <c r="D69" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="E69" s="64"/>
-      <c r="F69" s="65"/>
-      <c r="G69" s="63"/>
-      <c r="H69" s="68"/>
+      <c r="D69" s="12">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E69" s="61"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="33"/>
       <c r="I69" s="31"/>
-      <c r="J69" s="68"/>
-      <c r="K69" s="68"/>
-      <c r="L69" s="68"/>
-      <c r="M69" s="68"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
       <c r="N69" s="12"/>
       <c r="O69" s="3"/>
-      <c r="Q69" s="48">
-        <v>46112</v>
+      <c r="Q69" s="50">
+        <v>45999</v>
       </c>
     </row>
     <row r="70" spans="2:17" ht="5.0999999999999996" customHeight="1">
       <c r="B70" s="9"/>
       <c r="D70" s="12"/>
       <c r="E70" s="39"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="30"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
       <c r="H70" s="33"/>
       <c r="I70" s="31"/>
-      <c r="J70" s="68"/>
-      <c r="K70" s="68"/>
-      <c r="L70" s="68"/>
-      <c r="M70" s="68"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
       <c r="N70" s="12"/>
       <c r="O70" s="3"/>
       <c r="Q70" s="48"/>
@@ -2526,50 +2551,50 @@
       <c r="B71" s="9"/>
       <c r="D71" s="13"/>
       <c r="E71" s="39"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="30"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
       <c r="H71" s="33"/>
       <c r="I71" s="31"/>
-      <c r="J71" s="68"/>
-      <c r="K71" s="68"/>
-      <c r="L71" s="68"/>
-      <c r="M71" s="68"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
       <c r="N71" s="12"/>
       <c r="O71" s="3"/>
       <c r="Q71" s="48"/>
     </row>
     <row r="72" spans="2:17">
       <c r="B72" s="9"/>
-      <c r="D72" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E72" s="64"/>
-      <c r="F72" s="65"/>
-      <c r="G72" s="65"/>
-      <c r="H72" s="63"/>
-      <c r="I72" s="68"/>
-      <c r="J72" s="68"/>
-      <c r="K72" s="68"/>
-      <c r="L72" s="68"/>
-      <c r="M72" s="68"/>
+      <c r="D72" s="14">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E72" s="61"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
       <c r="N72" s="12"/>
       <c r="O72" s="3"/>
       <c r="Q72" s="48">
-        <v>46112</v>
+        <v>46349</v>
       </c>
     </row>
     <row r="73" spans="2:17" ht="5.0999999999999996" customHeight="1">
       <c r="B73" s="9"/>
       <c r="D73" s="12"/>
       <c r="E73" s="39"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="30"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
       <c r="H73" s="33"/>
       <c r="I73" s="31"/>
-      <c r="J73" s="68"/>
-      <c r="K73" s="68"/>
-      <c r="L73" s="68"/>
-      <c r="M73" s="68"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
       <c r="N73" s="12"/>
       <c r="O73" s="3"/>
       <c r="Q73" s="48"/>
@@ -2578,51 +2603,50 @@
       <c r="B74" s="9"/>
       <c r="D74" s="13"/>
       <c r="E74" s="39"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="30"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
       <c r="H74" s="33"/>
       <c r="I74" s="31"/>
-      <c r="J74" s="68"/>
-      <c r="K74" s="68"/>
-      <c r="L74" s="68"/>
-      <c r="M74" s="68"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
       <c r="N74" s="12"/>
       <c r="O74" s="3"/>
       <c r="Q74" s="48"/>
     </row>
     <row r="75" spans="2:17">
       <c r="B75" s="9"/>
-      <c r="D75" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="E75" s="69"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="71"/>
-      <c r="I75" s="58"/>
-      <c r="J75" s="68"/>
-      <c r="K75" s="68"/>
-      <c r="L75" s="68"/>
-      <c r="M75" s="68"/>
+      <c r="D75" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75" s="65"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="67"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
       <c r="N75" s="12"/>
       <c r="O75" s="3"/>
-      <c r="Q75" s="48">
-        <v>46477</v>
-      </c>
+      <c r="Q75" s="48"/>
     </row>
     <row r="76" spans="2:17" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B76" s="9"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="39"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="68"/>
-      <c r="J76" s="68"/>
-      <c r="K76" s="68"/>
-      <c r="L76" s="68"/>
-      <c r="M76" s="68"/>
-      <c r="N76" s="12"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="19"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="15"/>
       <c r="O76" s="3"/>
       <c r="Q76" s="48"/>
     </row>
@@ -2643,22 +2667,22 @@
       <c r="O77" s="3"/>
       <c r="Q77" s="48"/>
     </row>
-    <row r="78" spans="2:17" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="78" spans="2:17" hidden="1" outlineLevel="1">
       <c r="B78" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E78" s="64"/>
-      <c r="F78" s="63"/>
-      <c r="G78" s="68"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="60"/>
+      <c r="G78" s="16"/>
       <c r="H78" s="31"/>
-      <c r="I78" s="68"/>
-      <c r="J78" s="68"/>
-      <c r="K78" s="68"/>
-      <c r="L78" s="68"/>
-      <c r="M78" s="68"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="16"/>
       <c r="N78" s="12"/>
       <c r="O78" s="3"/>
       <c r="Q78" s="49">
@@ -2672,11 +2696,11 @@
       <c r="F79" s="31"/>
       <c r="G79" s="30"/>
       <c r="H79" s="31"/>
-      <c r="I79" s="68"/>
-      <c r="J79" s="68"/>
-      <c r="K79" s="68"/>
-      <c r="L79" s="68"/>
-      <c r="M79" s="68"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
       <c r="N79" s="12"/>
       <c r="O79" s="3"/>
       <c r="Q79" s="48"/>
@@ -2705,19 +2729,19 @@
       <c r="D81" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="64"/>
-      <c r="F81" s="65"/>
-      <c r="G81" s="63"/>
-      <c r="H81" s="68"/>
-      <c r="I81" s="68"/>
-      <c r="J81" s="68"/>
-      <c r="K81" s="68"/>
-      <c r="L81" s="68"/>
-      <c r="M81" s="68"/>
+      <c r="E81" s="61"/>
+      <c r="F81" s="62"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="16"/>
       <c r="N81" s="12"/>
       <c r="O81" s="3"/>
       <c r="Q81" s="51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="2:17" ht="5.0999999999999996" customHeight="1">
@@ -2727,11 +2751,11 @@
       <c r="F82" s="31"/>
       <c r="G82" s="30"/>
       <c r="H82" s="31"/>
-      <c r="I82" s="68"/>
-      <c r="J82" s="68"/>
-      <c r="K82" s="68"/>
-      <c r="L82" s="68"/>
-      <c r="M82" s="68"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="16"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="16"/>
       <c r="N82" s="12"/>
       <c r="O82" s="3"/>
       <c r="Q82" s="48"/>
@@ -2743,11 +2767,11 @@
       <c r="F83" s="31"/>
       <c r="G83" s="30"/>
       <c r="H83" s="31"/>
-      <c r="I83" s="68"/>
-      <c r="J83" s="68"/>
-      <c r="K83" s="68"/>
-      <c r="L83" s="68"/>
-      <c r="M83" s="68"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="16"/>
       <c r="N83" s="12"/>
       <c r="O83" s="3"/>
       <c r="Q83" s="48"/>
@@ -2755,21 +2779,21 @@
     <row r="84" spans="2:17">
       <c r="B84" s="9"/>
       <c r="D84" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" s="64"/>
-      <c r="F84" s="65"/>
-      <c r="G84" s="63"/>
-      <c r="H84" s="68"/>
-      <c r="I84" s="68"/>
-      <c r="J84" s="68"/>
-      <c r="K84" s="68"/>
-      <c r="L84" s="68"/>
-      <c r="M84" s="68"/>
+        <v>24</v>
+      </c>
+      <c r="E84" s="61"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="60"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="16"/>
       <c r="N84" s="12"/>
       <c r="O84" s="3"/>
       <c r="Q84" s="51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="2:17" ht="5.0999999999999996" customHeight="1">
@@ -2779,11 +2803,11 @@
       <c r="F85" s="31"/>
       <c r="G85" s="30"/>
       <c r="H85" s="31"/>
-      <c r="I85" s="68"/>
-      <c r="J85" s="68"/>
-      <c r="K85" s="68"/>
-      <c r="L85" s="68"/>
-      <c r="M85" s="68"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="16"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="16"/>
       <c r="N85" s="12"/>
       <c r="O85" s="3"/>
       <c r="Q85" s="48"/>
@@ -2795,11 +2819,11 @@
       <c r="F86" s="31"/>
       <c r="G86" s="30"/>
       <c r="H86" s="31"/>
-      <c r="I86" s="68"/>
-      <c r="J86" s="68"/>
-      <c r="K86" s="68"/>
-      <c r="L86" s="68"/>
-      <c r="M86" s="68"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="16"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="16"/>
       <c r="N86" s="12"/>
       <c r="O86" s="3"/>
       <c r="Q86" s="48"/>
@@ -2807,24 +2831,24 @@
     <row r="87" spans="2:17">
       <c r="B87" s="9"/>
       <c r="D87" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E87" s="64"/>
-      <c r="F87" s="65"/>
-      <c r="G87" s="63"/>
-      <c r="H87" s="68"/>
-      <c r="I87" s="68"/>
-      <c r="J87" s="68"/>
-      <c r="K87" s="68"/>
-      <c r="L87" s="68"/>
-      <c r="M87" s="68"/>
+        <v>37</v>
+      </c>
+      <c r="E87" s="61"/>
+      <c r="F87" s="62"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="16"/>
+      <c r="L87" s="16"/>
+      <c r="M87" s="16"/>
       <c r="N87" s="12"/>
       <c r="O87" s="3"/>
       <c r="Q87" s="51" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="88" spans="2:17" ht="5.0999999999999996" customHeight="1" thickBot="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="2:17" ht="4.5" customHeight="1" thickBot="1">
       <c r="B88" s="10"/>
       <c r="C88" s="42"/>
       <c r="D88" s="15"/>
@@ -2841,136 +2865,184 @@
       <c r="O88" s="3"/>
       <c r="Q88" s="48"/>
     </row>
-    <row r="89" spans="2:17" ht="5.0999999999999996" customHeight="1">
+    <row r="89" spans="2:17" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B89" s="9"/>
       <c r="D89" s="12"/>
       <c r="E89" s="39"/>
       <c r="F89" s="31"/>
-      <c r="G89" s="68"/>
-      <c r="H89" s="68"/>
-      <c r="I89" s="68"/>
-      <c r="J89" s="68"/>
-      <c r="K89" s="68"/>
-      <c r="L89" s="68"/>
-      <c r="M89" s="68"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="16"/>
+      <c r="M89" s="16"/>
       <c r="N89" s="12"/>
       <c r="O89" s="3"/>
       <c r="Q89" s="48"/>
     </row>
-    <row r="90" spans="2:17">
+    <row r="90" spans="2:17" hidden="1" outlineLevel="1">
       <c r="B90" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C90" s="72"/>
       <c r="D90" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E90" s="64"/>
-      <c r="F90" s="68"/>
-      <c r="G90" s="68"/>
-      <c r="H90" s="68"/>
-      <c r="I90" s="68"/>
-      <c r="J90" s="68"/>
-      <c r="K90" s="68"/>
-      <c r="L90" s="68"/>
-      <c r="M90" s="68"/>
+        <v>25</v>
+      </c>
+      <c r="E90" s="61"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="16"/>
+      <c r="L90" s="16"/>
+      <c r="M90" s="16"/>
       <c r="N90" s="12"/>
       <c r="Q90" s="49">
         <v>45444</v>
       </c>
     </row>
-    <row r="91" spans="2:17" ht="5.0999999999999996" customHeight="1">
+    <row r="91" spans="2:17" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B91" s="9"/>
-      <c r="C91" s="72"/>
       <c r="D91" s="12"/>
       <c r="E91" s="39"/>
-      <c r="F91" s="68"/>
-      <c r="G91" s="68"/>
-      <c r="H91" s="68"/>
-      <c r="I91" s="68"/>
-      <c r="J91" s="68"/>
-      <c r="K91" s="68"/>
-      <c r="L91" s="68"/>
-      <c r="M91" s="68"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="16"/>
+      <c r="L91" s="16"/>
+      <c r="M91" s="16"/>
       <c r="N91" s="12"/>
       <c r="O91" s="3"/>
       <c r="Q91" s="48"/>
     </row>
-    <row r="92" spans="2:17" ht="5.0999999999999996" customHeight="1">
+    <row r="92" spans="2:17" ht="5.0999999999999996" customHeight="1" collapsed="1">
       <c r="B92" s="9"/>
-      <c r="C92" s="72"/>
       <c r="D92" s="13"/>
       <c r="E92" s="39"/>
-      <c r="F92" s="68"/>
-      <c r="G92" s="68"/>
-      <c r="H92" s="68"/>
-      <c r="I92" s="68"/>
-      <c r="J92" s="68"/>
-      <c r="K92" s="68"/>
-      <c r="L92" s="68"/>
-      <c r="M92" s="68"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="16"/>
+      <c r="L92" s="16"/>
+      <c r="M92" s="16"/>
       <c r="N92" s="12"/>
       <c r="O92" s="3"/>
       <c r="Q92" s="48"/>
     </row>
     <row r="93" spans="2:17">
-      <c r="B93" s="9"/>
-      <c r="C93" s="72"/>
-      <c r="D93" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="E93" s="58"/>
-      <c r="F93" s="68"/>
-      <c r="G93" s="68"/>
-      <c r="H93" s="68"/>
-      <c r="I93" s="68"/>
-      <c r="J93" s="68"/>
-      <c r="K93" s="68"/>
-      <c r="L93" s="68"/>
-      <c r="M93" s="68"/>
+      <c r="B93" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="E93" s="61"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="16"/>
+      <c r="L93" s="16"/>
+      <c r="M93" s="16"/>
       <c r="N93" s="12"/>
       <c r="O93" s="3"/>
       <c r="Q93" s="51"/>
     </row>
-    <row r="94" spans="2:17" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B94" s="10"/>
-      <c r="C94" s="42"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="40"/>
-      <c r="F94" s="36"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="19"/>
-      <c r="K94" s="19"/>
-      <c r="L94" s="19"/>
-      <c r="M94" s="19"/>
-      <c r="N94" s="15"/>
+    <row r="94" spans="2:17" ht="5.0999999999999996" customHeight="1">
+      <c r="B94" s="9"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="16"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="16"/>
+      <c r="N94" s="12"/>
       <c r="O94" s="3"/>
       <c r="Q94" s="48"/>
     </row>
     <row r="95" spans="2:17" ht="5.0999999999999996" customHeight="1">
-      <c r="D95" s="16"/>
+      <c r="B95" s="9"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="39"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="16"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="16"/>
+      <c r="N95" s="12"/>
       <c r="O95" s="3"/>
+      <c r="Q95" s="48"/>
     </row>
     <row r="96" spans="2:17">
-      <c r="B96" s="2"/>
-      <c r="C96" s="4" t="s">
+      <c r="B96" s="9"/>
+      <c r="D96" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E96" s="56"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="16"/>
+      <c r="L96" s="16"/>
+      <c r="M96" s="16"/>
+      <c r="N96" s="12"/>
+      <c r="O96" s="3"/>
+      <c r="Q96" s="51"/>
+    </row>
+    <row r="97" spans="2:17" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="B97" s="10"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="19"/>
+      <c r="K97" s="19"/>
+      <c r="L97" s="19"/>
+      <c r="M97" s="19"/>
+      <c r="N97" s="15"/>
+      <c r="O97" s="3"/>
+      <c r="Q97" s="48"/>
+    </row>
+    <row r="98" spans="2:17" ht="5.0999999999999996" customHeight="1">
+      <c r="D98" s="16"/>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="2:17">
+      <c r="B99" s="2"/>
+      <c r="C99" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="2:17">
+      <c r="B100" s="23"/>
+      <c r="C100" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="2:4">
-      <c r="B97" s="23"/>
-      <c r="C97" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4">
-      <c r="B98" s="52"/>
-      <c r="C98" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D98" s="4"/>
+    <row r="101" spans="2:17">
+      <c r="B101" s="52"/>
+      <c r="C101" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D101" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2980,7 +3052,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D12 D81 D78 D87 D84 D90 D18 D21 D63 D72 D75 D93" numberStoredAsText="1"/>
+    <ignoredError sqref="D12 D78 D18 D21 D75 D48 D51 D90 D81:D89 D91:D96" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/20231007_Python と Java と Go と Node.js と PHP と Rupy のサポート状況/123_PythonSupport.xlsx
+++ b/20231007_Python と Java と Go と Node.js と PHP と Rupy のサポート状況/123_PythonSupport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20231007_Python と Java と Go と Node.js と PHP と Rupy のサポート状況\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33DB6F8-0EAF-4285-ADAC-0473FE71F5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BADDE7E-A901-42CC-AB84-A526DA87AA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -945,7 +945,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1174,54 +1174,54 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1234,9 +1234,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1252,6 +1253,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>32734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72BF3313-B6A8-AFE6-15DD-E8D1B4F2B822}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11344274" y="2213959"/>
+          <a:ext cx="8791575" cy="3320066"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1517,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V129"/>
+  <dimension ref="A1:Z129"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V60" sqref="V60"/>
+      <selection activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -1557,7 +1624,7 @@
       <c r="M2" s="96"/>
     </row>
     <row r="3" spans="2:22" ht="16.5" thickBot="1">
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="78" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="22" t="s">
@@ -1583,6 +1650,19 @@
       </c>
       <c r="M3" s="23" t="s">
         <v>18</v>
+      </c>
+      <c r="P3" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="98" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:22" ht="16.5" thickBot="1">
@@ -1593,7 +1673,7 @@
       <c r="D4" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="81">
+      <c r="E4" s="79">
         <v>2024</v>
       </c>
       <c r="F4" s="5">
@@ -1620,21 +1700,15 @@
       <c r="M4" s="7">
         <v>2032</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="P4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="V4" s="1"/>
     </row>
     <row r="5" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B5" s="8"/>
       <c r="C5" s="37"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="82"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="34"/>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
@@ -1669,7 +1743,7 @@
     <row r="7" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B7" s="9"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="83"/>
+      <c r="E7" s="81"/>
       <c r="F7" s="35"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
@@ -1684,7 +1758,7 @@
     <row r="8" spans="2:22" ht="5.0999999999999996" customHeight="1" collapsed="1">
       <c r="B8" s="9"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="83"/>
+      <c r="E8" s="81"/>
       <c r="F8" s="35"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
@@ -1726,7 +1800,7 @@
     <row r="10" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B10" s="9"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="83"/>
+      <c r="E10" s="81"/>
       <c r="F10" s="35"/>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
@@ -1742,7 +1816,7 @@
     <row r="11" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B11" s="9"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="83"/>
+      <c r="E11" s="81"/>
       <c r="F11" s="35"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
@@ -1762,7 +1836,7 @@
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="85"/>
+      <c r="G12" s="83"/>
       <c r="H12" s="26"/>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
@@ -1776,14 +1850,14 @@
       <c r="S12" s="69">
         <v>45021</v>
       </c>
-      <c r="V12" s="98">
+      <c r="V12" s="91">
         <v>46296</v>
       </c>
     </row>
     <row r="13" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B13" s="9"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="83"/>
+      <c r="E13" s="81"/>
       <c r="F13" s="35"/>
       <c r="G13" s="29"/>
       <c r="H13" s="27"/>
@@ -1799,7 +1873,7 @@
     <row r="14" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B14" s="9"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="83"/>
+      <c r="E14" s="81"/>
       <c r="F14" s="35"/>
       <c r="G14" s="29"/>
       <c r="H14" s="27"/>
@@ -1819,8 +1893,8 @@
       </c>
       <c r="E15" s="49"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
       <c r="I15" s="26"/>
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
@@ -1840,7 +1914,7 @@
     <row r="16" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B16" s="9"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="83"/>
+      <c r="E16" s="81"/>
       <c r="F16" s="35"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
@@ -1853,10 +1927,10 @@
       <c r="P16" s="61"/>
       <c r="V16" s="61"/>
     </row>
-    <row r="17" spans="2:22" ht="5.0999999999999996" customHeight="1">
+    <row r="17" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B17" s="9"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="83"/>
+      <c r="E17" s="81"/>
       <c r="F17" s="35"/>
       <c r="G17" s="29"/>
       <c r="H17" s="27"/>
@@ -1869,16 +1943,16 @@
       <c r="P17" s="61"/>
       <c r="V17" s="61"/>
     </row>
-    <row r="18" spans="2:22">
+    <row r="18" spans="2:26">
       <c r="B18" s="9"/>
       <c r="D18" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
       <c r="J18" s="26"/>
       <c r="K18" s="29"/>
       <c r="L18" s="29"/>
@@ -1894,10 +1968,10 @@
         <v>47027</v>
       </c>
     </row>
-    <row r="19" spans="2:22" ht="5.0999999999999996" customHeight="1">
+    <row r="19" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B19" s="9"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="83"/>
+      <c r="E19" s="81"/>
       <c r="F19" s="35"/>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
@@ -1910,10 +1984,10 @@
       <c r="P19" s="61"/>
       <c r="V19" s="61"/>
     </row>
-    <row r="20" spans="2:22" ht="5.0999999999999996" customHeight="1">
+    <row r="20" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B20" s="9"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="83"/>
+      <c r="E20" s="81"/>
       <c r="F20" s="35"/>
       <c r="G20" s="29"/>
       <c r="H20" s="27"/>
@@ -1926,17 +2000,17 @@
       <c r="P20" s="61"/>
       <c r="V20" s="61"/>
     </row>
-    <row r="21" spans="2:22">
+    <row r="21" spans="2:26">
       <c r="B21" s="9"/>
       <c r="D21" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="49"/>
       <c r="F21" s="49"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
       <c r="K21" s="26"/>
       <c r="L21" s="29"/>
       <c r="M21" s="31"/>
@@ -1951,10 +2025,10 @@
         <v>47392</v>
       </c>
     </row>
-    <row r="22" spans="2:22" ht="5.0999999999999996" customHeight="1">
+    <row r="22" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B22" s="9"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="83"/>
+      <c r="E22" s="81"/>
       <c r="F22" s="35"/>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
@@ -1967,10 +2041,10 @@
       <c r="P22" s="61"/>
       <c r="V22" s="61"/>
     </row>
-    <row r="23" spans="2:22" ht="5.0999999999999996" customHeight="1">
+    <row r="23" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B23" s="9"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="83"/>
+      <c r="E23" s="81"/>
       <c r="F23" s="35"/>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
@@ -1983,13 +2057,13 @@
       <c r="P23" s="61"/>
       <c r="V23" s="61"/>
     </row>
-    <row r="24" spans="2:22">
+    <row r="24" spans="2:26">
       <c r="B24" s="9"/>
       <c r="D24" s="45" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="55"/>
-      <c r="F24" s="87"/>
+      <c r="F24" s="85"/>
       <c r="G24" s="47"/>
       <c r="H24" s="47"/>
       <c r="I24" s="47"/>
@@ -2008,10 +2082,10 @@
         <v>47757</v>
       </c>
     </row>
-    <row r="25" spans="2:22" ht="5.0999999999999996" customHeight="1" thickBot="1">
+    <row r="25" spans="2:26" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B25" s="9"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="83"/>
+      <c r="E25" s="81"/>
       <c r="F25" s="35"/>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
@@ -2024,11 +2098,11 @@
       <c r="P25" s="61"/>
       <c r="V25" s="61"/>
     </row>
-    <row r="26" spans="2:22" ht="5.0999999999999996" customHeight="1">
+    <row r="26" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B26" s="8"/>
       <c r="C26" s="37"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="82"/>
+      <c r="E26" s="80"/>
       <c r="F26" s="34"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
@@ -2040,8 +2114,9 @@
       <c r="N26" s="3"/>
       <c r="P26" s="61"/>
       <c r="V26" s="61"/>
-    </row>
-    <row r="27" spans="2:22">
+      <c r="Z26"/>
+    </row>
+    <row r="27" spans="2:26">
       <c r="B27" s="9" t="s">
         <v>23</v>
       </c>
@@ -2050,11 +2125,11 @@
       </c>
       <c r="E27" s="50"/>
       <c r="F27" s="50"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
       <c r="L27" s="26"/>
       <c r="M27" s="31"/>
       <c r="N27" s="3"/>
@@ -2066,13 +2141,13 @@
         <v>47818</v>
       </c>
     </row>
-    <row r="28" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B28" s="78" t="s">
+    <row r="28" spans="2:26" ht="5.0999999999999996" customHeight="1">
+      <c r="B28" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="79"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="83"/>
+      <c r="E28" s="81"/>
       <c r="F28" s="35"/>
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
@@ -2086,11 +2161,11 @@
       <c r="S28" s="75"/>
       <c r="V28" s="61"/>
     </row>
-    <row r="29" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B29" s="78"/>
-      <c r="C29" s="79"/>
+    <row r="29" spans="2:26" ht="5.0999999999999996" customHeight="1">
+      <c r="B29" s="92"/>
+      <c r="C29" s="93"/>
       <c r="D29" s="13"/>
-      <c r="E29" s="83"/>
+      <c r="E29" s="81"/>
       <c r="F29" s="35"/>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
@@ -2104,21 +2179,21 @@
       <c r="S29" s="75"/>
       <c r="V29" s="61"/>
     </row>
-    <row r="30" spans="2:22">
-      <c r="B30" s="78"/>
-      <c r="C30" s="79"/>
+    <row r="30" spans="2:26">
+      <c r="B30" s="92"/>
+      <c r="C30" s="93"/>
       <c r="D30" s="12">
         <v>11</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="93"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="90"/>
       <c r="N30" s="3"/>
       <c r="P30" s="61">
         <v>43344</v>
@@ -2128,10 +2203,10 @@
         <v>48214</v>
       </c>
     </row>
-    <row r="31" spans="2:22" ht="5.0999999999999996" customHeight="1">
+    <row r="31" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B31" s="9"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="83"/>
+      <c r="E31" s="81"/>
       <c r="F31" s="35"/>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
@@ -2145,10 +2220,10 @@
       <c r="S31" s="75"/>
       <c r="V31" s="61"/>
     </row>
-    <row r="32" spans="2:22" ht="5.0999999999999996" customHeight="1">
+    <row r="32" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B32" s="9"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="83"/>
+      <c r="E32" s="81"/>
       <c r="F32" s="35"/>
       <c r="G32" s="29"/>
       <c r="H32" s="29"/>
@@ -2169,11 +2244,11 @@
       </c>
       <c r="E33" s="49"/>
       <c r="F33" s="49"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="89"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="16"/>
       <c r="L33" s="26"/>
       <c r="M33" s="12"/>
       <c r="N33" s="3"/>
@@ -2188,13 +2263,13 @@
     <row r="34" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B34" s="9"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="83"/>
+      <c r="E34" s="81"/>
       <c r="F34" s="35"/>
       <c r="G34" s="29"/>
       <c r="H34" s="29"/>
       <c r="I34" s="29"/>
       <c r="J34" s="27"/>
-      <c r="K34" s="89"/>
+      <c r="K34" s="16"/>
       <c r="L34" s="26"/>
       <c r="M34" s="12"/>
       <c r="N34" s="3"/>
@@ -2205,13 +2280,13 @@
     <row r="35" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B35" s="9"/>
       <c r="D35" s="13"/>
-      <c r="E35" s="83"/>
+      <c r="E35" s="81"/>
       <c r="F35" s="35"/>
       <c r="G35" s="29"/>
       <c r="H35" s="29"/>
       <c r="I35" s="29"/>
       <c r="J35" s="27"/>
-      <c r="K35" s="89"/>
+      <c r="K35" s="16"/>
       <c r="L35" s="26"/>
       <c r="M35" s="12"/>
       <c r="N35" s="3"/>
@@ -2226,12 +2301,12 @@
       </c>
       <c r="E36" s="49"/>
       <c r="F36" s="49"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="83"/>
+      <c r="K36" s="83"/>
+      <c r="L36" s="83"/>
       <c r="M36" s="12"/>
       <c r="N36" s="3"/>
       <c r="P36" s="61" t="s">
@@ -2245,14 +2320,14 @@
     <row r="37" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B37" s="9"/>
       <c r="D37" s="12"/>
-      <c r="E37" s="83"/>
+      <c r="E37" s="81"/>
       <c r="F37" s="35"/>
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
       <c r="I37" s="29"/>
       <c r="J37" s="27"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="89"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
       <c r="M37" s="12"/>
       <c r="N37" s="3"/>
       <c r="P37" s="61"/>
@@ -2262,14 +2337,14 @@
     <row r="38" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B38" s="9"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="83"/>
+      <c r="E38" s="81"/>
       <c r="F38" s="35"/>
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
       <c r="I38" s="29"/>
       <c r="J38" s="27"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="89"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
       <c r="M38" s="12"/>
       <c r="N38" s="3"/>
       <c r="P38" s="61"/>
@@ -2287,8 +2362,8 @@
       <c r="H39" s="29"/>
       <c r="I39" s="29"/>
       <c r="J39" s="27"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="89"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
       <c r="M39" s="12"/>
       <c r="N39" s="3"/>
       <c r="P39" s="61"/>
@@ -2300,14 +2375,14 @@
     <row r="40" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B40" s="9"/>
       <c r="D40" s="12"/>
-      <c r="E40" s="83"/>
+      <c r="E40" s="81"/>
       <c r="F40" s="35"/>
       <c r="G40" s="29"/>
       <c r="H40" s="29"/>
       <c r="I40" s="29"/>
       <c r="J40" s="27"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="89"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
       <c r="M40" s="12"/>
       <c r="N40" s="3"/>
       <c r="P40" s="61"/>
@@ -2317,14 +2392,14 @@
     <row r="41" spans="2:22" ht="5.0999999999999996" customHeight="1" collapsed="1">
       <c r="B41" s="9"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="83"/>
+      <c r="E41" s="81"/>
       <c r="F41" s="35"/>
       <c r="G41" s="29"/>
       <c r="H41" s="29"/>
       <c r="I41" s="29"/>
       <c r="J41" s="27"/>
-      <c r="K41" s="89"/>
-      <c r="L41" s="89"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
       <c r="M41" s="12"/>
       <c r="N41" s="3"/>
       <c r="P41" s="61"/>
@@ -2342,8 +2417,8 @@
       <c r="H42" s="29"/>
       <c r="I42" s="29"/>
       <c r="J42" s="27"/>
-      <c r="K42" s="89"/>
-      <c r="L42" s="89"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
       <c r="M42" s="12"/>
       <c r="N42" s="3"/>
       <c r="P42" s="64">
@@ -2357,14 +2432,14 @@
     <row r="43" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B43" s="9"/>
       <c r="D43" s="12"/>
-      <c r="E43" s="83"/>
+      <c r="E43" s="81"/>
       <c r="F43" s="35"/>
       <c r="G43" s="29"/>
       <c r="H43" s="29"/>
       <c r="I43" s="29"/>
       <c r="J43" s="27"/>
-      <c r="K43" s="89"/>
-      <c r="L43" s="89"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
       <c r="M43" s="12"/>
       <c r="N43" s="3"/>
       <c r="P43" s="61"/>
@@ -2374,14 +2449,14 @@
     <row r="44" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B44" s="9"/>
       <c r="D44" s="13"/>
-      <c r="E44" s="83"/>
+      <c r="E44" s="81"/>
       <c r="F44" s="35"/>
       <c r="G44" s="29"/>
       <c r="H44" s="29"/>
       <c r="I44" s="29"/>
       <c r="J44" s="27"/>
-      <c r="K44" s="89"/>
-      <c r="L44" s="89"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
       <c r="M44" s="12"/>
       <c r="N44" s="3"/>
       <c r="P44" s="61"/>
@@ -2394,13 +2469,13 @@
         <v>24</v>
       </c>
       <c r="E45" s="55"/>
-      <c r="F45" s="90"/>
+      <c r="F45" s="87"/>
       <c r="G45" s="26"/>
       <c r="H45" s="29"/>
       <c r="I45" s="29"/>
       <c r="J45" s="27"/>
-      <c r="K45" s="89"/>
-      <c r="L45" s="89"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
       <c r="M45" s="12"/>
       <c r="N45" s="3"/>
       <c r="P45" s="63">
@@ -2415,7 +2490,7 @@
       <c r="B46" s="10"/>
       <c r="C46" s="38"/>
       <c r="D46" s="15"/>
-      <c r="E46" s="84"/>
+      <c r="E46" s="82"/>
       <c r="F46" s="36"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
@@ -2433,7 +2508,7 @@
       <c r="B47" s="8"/>
       <c r="C47" s="37"/>
       <c r="D47" s="11"/>
-      <c r="E47" s="82"/>
+      <c r="E47" s="80"/>
       <c r="F47" s="34"/>
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
@@ -2456,12 +2531,12 @@
       </c>
       <c r="E48" s="49"/>
       <c r="F48" s="18"/>
-      <c r="G48" s="89"/>
+      <c r="G48" s="16"/>
       <c r="H48" s="29"/>
       <c r="I48" s="29"/>
       <c r="J48" s="27"/>
-      <c r="K48" s="89"/>
-      <c r="L48" s="89"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
       <c r="M48" s="12"/>
       <c r="N48" s="3"/>
       <c r="P48" s="62">
@@ -2475,14 +2550,14 @@
     <row r="49" spans="1:22" ht="5.0999999999999996" customHeight="1">
       <c r="B49" s="9"/>
       <c r="D49" s="12"/>
-      <c r="E49" s="83"/>
+      <c r="E49" s="81"/>
       <c r="F49" s="35"/>
       <c r="G49" s="29"/>
       <c r="H49" s="29"/>
       <c r="I49" s="29"/>
       <c r="J49" s="27"/>
-      <c r="K49" s="89"/>
-      <c r="L49" s="89"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
       <c r="M49" s="12"/>
       <c r="N49" s="3"/>
       <c r="P49" s="62"/>
@@ -2492,14 +2567,14 @@
     <row r="50" spans="1:22" ht="5.0999999999999996" customHeight="1">
       <c r="B50" s="9"/>
       <c r="D50" s="13"/>
-      <c r="E50" s="83"/>
+      <c r="E50" s="81"/>
       <c r="F50" s="35"/>
       <c r="G50" s="29"/>
       <c r="H50" s="29"/>
       <c r="I50" s="29"/>
       <c r="J50" s="27"/>
-      <c r="K50" s="89"/>
-      <c r="L50" s="89"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
       <c r="M50" s="12"/>
       <c r="N50" s="3"/>
       <c r="P50" s="62"/>
@@ -2513,33 +2588,33 @@
       </c>
       <c r="E51" s="49"/>
       <c r="F51" s="49"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="89"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="16"/>
       <c r="I51" s="29"/>
       <c r="J51" s="27"/>
-      <c r="K51" s="89"/>
-      <c r="L51" s="89"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
       <c r="M51" s="12"/>
       <c r="N51" s="3"/>
       <c r="P51" s="62">
         <v>44920</v>
       </c>
       <c r="S51" s="75"/>
-      <c r="V51" s="98">
+      <c r="V51" s="91">
         <v>46112</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="5.0999999999999996" customHeight="1">
       <c r="B52" s="9"/>
       <c r="D52" s="12"/>
-      <c r="E52" s="83"/>
+      <c r="E52" s="81"/>
       <c r="F52" s="35"/>
       <c r="G52" s="29"/>
       <c r="H52" s="29"/>
       <c r="I52" s="29"/>
       <c r="J52" s="27"/>
-      <c r="K52" s="89"/>
-      <c r="L52" s="89"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
       <c r="M52" s="12"/>
       <c r="N52" s="3"/>
       <c r="P52" s="62"/>
@@ -2549,14 +2624,14 @@
     <row r="53" spans="1:22" ht="5.0999999999999996" customHeight="1">
       <c r="B53" s="9"/>
       <c r="D53" s="13"/>
-      <c r="E53" s="83"/>
+      <c r="E53" s="81"/>
       <c r="F53" s="35"/>
       <c r="G53" s="29"/>
       <c r="H53" s="29"/>
       <c r="I53" s="29"/>
       <c r="J53" s="27"/>
-      <c r="K53" s="89"/>
-      <c r="L53" s="89"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
       <c r="M53" s="12"/>
       <c r="N53" s="3"/>
       <c r="P53" s="62"/>
@@ -2570,12 +2645,12 @@
       </c>
       <c r="E54" s="49"/>
       <c r="F54" s="49"/>
-      <c r="G54" s="86"/>
-      <c r="H54" s="85"/>
+      <c r="G54" s="84"/>
+      <c r="H54" s="83"/>
       <c r="I54" s="26"/>
       <c r="J54" s="27"/>
-      <c r="K54" s="89"/>
-      <c r="L54" s="89"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
       <c r="M54" s="12"/>
       <c r="N54" s="3"/>
       <c r="P54" s="62">
@@ -2589,14 +2664,14 @@
     <row r="55" spans="1:22" ht="5.0999999999999996" customHeight="1">
       <c r="B55" s="9"/>
       <c r="D55" s="12"/>
-      <c r="E55" s="83"/>
+      <c r="E55" s="81"/>
       <c r="F55" s="35"/>
       <c r="G55" s="29"/>
       <c r="H55" s="29"/>
       <c r="I55" s="29"/>
       <c r="J55" s="27"/>
-      <c r="K55" s="89"/>
-      <c r="L55" s="89"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
       <c r="M55" s="12"/>
       <c r="N55" s="3"/>
       <c r="P55" s="61"/>
@@ -2606,14 +2681,14 @@
     <row r="56" spans="1:22" ht="5.0999999999999996" customHeight="1">
       <c r="B56" s="9"/>
       <c r="D56" s="13"/>
-      <c r="E56" s="83"/>
+      <c r="E56" s="81"/>
       <c r="F56" s="35"/>
       <c r="G56" s="29"/>
       <c r="H56" s="29"/>
       <c r="I56" s="29"/>
       <c r="J56" s="27"/>
-      <c r="K56" s="89"/>
-      <c r="L56" s="89"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
       <c r="M56" s="12"/>
       <c r="N56" s="3"/>
       <c r="P56" s="61"/>
@@ -2627,12 +2702,12 @@
       </c>
       <c r="E57" s="51"/>
       <c r="F57" s="49"/>
-      <c r="G57" s="86"/>
-      <c r="H57" s="86"/>
-      <c r="I57" s="85"/>
-      <c r="J57" s="89"/>
-      <c r="K57" s="89"/>
-      <c r="L57" s="89"/>
+      <c r="G57" s="84"/>
+      <c r="H57" s="84"/>
+      <c r="I57" s="83"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
       <c r="M57" s="12"/>
       <c r="N57" s="3"/>
       <c r="P57" s="63">
@@ -2647,7 +2722,7 @@
       <c r="B58" s="10"/>
       <c r="C58" s="38"/>
       <c r="D58" s="15"/>
-      <c r="E58" s="84"/>
+      <c r="E58" s="82"/>
       <c r="F58" s="36"/>
       <c r="G58" s="32"/>
       <c r="H58" s="29"/>
@@ -2664,14 +2739,14 @@
     <row r="59" spans="1:22" ht="5.0999999999999996" customHeight="1">
       <c r="B59" s="9"/>
       <c r="D59" s="12"/>
-      <c r="E59" s="83"/>
+      <c r="E59" s="81"/>
       <c r="F59" s="35"/>
       <c r="G59" s="29"/>
       <c r="H59" s="28"/>
       <c r="I59" s="28"/>
       <c r="J59" s="25"/>
-      <c r="K59" s="89"/>
-      <c r="L59" s="89"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
       <c r="M59" s="12"/>
       <c r="N59" s="3"/>
       <c r="P59" s="61"/>
@@ -2687,12 +2762,12 @@
       </c>
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
-      <c r="G60" s="89"/>
+      <c r="G60" s="16"/>
       <c r="H60" s="29"/>
       <c r="I60" s="29"/>
       <c r="J60" s="27"/>
-      <c r="K60" s="89"/>
-      <c r="L60" s="89"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
       <c r="M60" s="12"/>
       <c r="N60" s="3"/>
       <c r="P60" s="61">
@@ -2709,14 +2784,14 @@
       </c>
       <c r="B61" s="9"/>
       <c r="D61" s="12"/>
-      <c r="E61" s="83"/>
+      <c r="E61" s="81"/>
       <c r="F61" s="35"/>
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
       <c r="I61" s="29"/>
       <c r="J61" s="27"/>
-      <c r="K61" s="89"/>
-      <c r="L61" s="89"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
       <c r="M61" s="12"/>
       <c r="N61" s="3"/>
       <c r="P61" s="61"/>
@@ -2726,14 +2801,14 @@
     <row r="62" spans="1:22" ht="5.0999999999999996" customHeight="1">
       <c r="B62" s="9"/>
       <c r="D62" s="13"/>
-      <c r="E62" s="83"/>
+      <c r="E62" s="81"/>
       <c r="F62" s="35"/>
       <c r="G62" s="29"/>
       <c r="H62" s="29"/>
       <c r="I62" s="29"/>
       <c r="J62" s="27"/>
-      <c r="K62" s="89"/>
-      <c r="L62" s="89"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
       <c r="M62" s="12"/>
       <c r="N62" s="3"/>
       <c r="P62" s="61"/>
@@ -2747,33 +2822,33 @@
       </c>
       <c r="E63" s="49"/>
       <c r="F63" s="18"/>
-      <c r="G63" s="85"/>
-      <c r="H63" s="89"/>
+      <c r="G63" s="83"/>
+      <c r="H63" s="16"/>
       <c r="I63" s="29"/>
       <c r="J63" s="27"/>
-      <c r="K63" s="89"/>
-      <c r="L63" s="89"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
       <c r="M63" s="12"/>
       <c r="N63" s="3"/>
       <c r="P63" s="61">
         <v>45017</v>
       </c>
       <c r="S63" s="75"/>
-      <c r="V63" s="98">
+      <c r="V63" s="91">
         <v>46142</v>
       </c>
     </row>
     <row r="64" spans="1:22" ht="5.0999999999999996" customHeight="1">
       <c r="B64" s="9"/>
       <c r="D64" s="12"/>
-      <c r="E64" s="83"/>
+      <c r="E64" s="81"/>
       <c r="F64" s="35"/>
       <c r="G64" s="29"/>
       <c r="H64" s="29"/>
       <c r="I64" s="29"/>
       <c r="J64" s="27"/>
-      <c r="K64" s="89"/>
-      <c r="L64" s="89"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
       <c r="M64" s="12"/>
       <c r="N64" s="3"/>
       <c r="P64" s="61"/>
@@ -2783,14 +2858,14 @@
     <row r="65" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B65" s="9"/>
       <c r="D65" s="13"/>
-      <c r="E65" s="83"/>
+      <c r="E65" s="81"/>
       <c r="F65" s="35"/>
       <c r="G65" s="29"/>
       <c r="H65" s="29"/>
       <c r="I65" s="29"/>
       <c r="J65" s="27"/>
-      <c r="K65" s="89"/>
-      <c r="L65" s="89"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
       <c r="M65" s="12"/>
       <c r="N65" s="3"/>
       <c r="P65" s="61"/>
@@ -2803,13 +2878,13 @@
         <v>21</v>
       </c>
       <c r="E66" s="18"/>
-      <c r="F66" s="83"/>
+      <c r="F66" s="81"/>
       <c r="G66" s="29"/>
       <c r="H66" s="29"/>
       <c r="I66" s="29"/>
       <c r="J66" s="27"/>
-      <c r="K66" s="89"/>
-      <c r="L66" s="89"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
       <c r="M66" s="12"/>
       <c r="N66" s="3"/>
       <c r="P66" s="61">
@@ -2823,14 +2898,14 @@
     <row r="67" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B67" s="9"/>
       <c r="D67" s="12"/>
-      <c r="E67" s="83"/>
+      <c r="E67" s="81"/>
       <c r="F67" s="35"/>
       <c r="G67" s="29"/>
       <c r="H67" s="29"/>
       <c r="I67" s="29"/>
       <c r="J67" s="27"/>
-      <c r="K67" s="89"/>
-      <c r="L67" s="89"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
       <c r="M67" s="12"/>
       <c r="N67" s="3"/>
       <c r="P67" s="61"/>
@@ -2840,14 +2915,14 @@
     <row r="68" spans="2:22" ht="5.0999999999999996" customHeight="1" collapsed="1">
       <c r="B68" s="9"/>
       <c r="D68" s="13"/>
-      <c r="E68" s="83"/>
+      <c r="E68" s="81"/>
       <c r="F68" s="35"/>
       <c r="G68" s="29"/>
       <c r="H68" s="29"/>
       <c r="I68" s="29"/>
       <c r="J68" s="27"/>
-      <c r="K68" s="89"/>
-      <c r="L68" s="89"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
       <c r="M68" s="12"/>
       <c r="N68" s="3"/>
       <c r="P68" s="61"/>
@@ -2861,12 +2936,12 @@
       </c>
       <c r="E69" s="49"/>
       <c r="F69" s="49"/>
-      <c r="G69" s="85"/>
-      <c r="H69" s="85"/>
+      <c r="G69" s="83"/>
+      <c r="H69" s="83"/>
       <c r="I69" s="26"/>
       <c r="J69" s="27"/>
-      <c r="K69" s="89"/>
-      <c r="L69" s="89"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
       <c r="M69" s="12"/>
       <c r="N69" s="3"/>
       <c r="P69" s="61">
@@ -2880,14 +2955,14 @@
     <row r="70" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B70" s="9"/>
       <c r="D70" s="12"/>
-      <c r="E70" s="83"/>
+      <c r="E70" s="81"/>
       <c r="F70" s="35"/>
       <c r="G70" s="29"/>
       <c r="H70" s="29"/>
       <c r="I70" s="29"/>
       <c r="J70" s="27"/>
-      <c r="K70" s="89"/>
-      <c r="L70" s="89"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
       <c r="M70" s="12"/>
       <c r="N70" s="3"/>
       <c r="P70" s="61"/>
@@ -2899,14 +2974,14 @@
     <row r="71" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B71" s="9"/>
       <c r="D71" s="13"/>
-      <c r="E71" s="83"/>
+      <c r="E71" s="81"/>
       <c r="F71" s="35"/>
       <c r="G71" s="29"/>
       <c r="H71" s="29"/>
       <c r="I71" s="29"/>
       <c r="J71" s="27"/>
-      <c r="K71" s="89"/>
-      <c r="L71" s="89"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
       <c r="M71" s="12"/>
       <c r="N71" s="3"/>
       <c r="P71" s="61"/>
@@ -2924,8 +2999,8 @@
       <c r="H72" s="29"/>
       <c r="I72" s="29"/>
       <c r="J72" s="27"/>
-      <c r="K72" s="89"/>
-      <c r="L72" s="89"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
       <c r="M72" s="12"/>
       <c r="N72" s="3"/>
       <c r="P72" s="64">
@@ -2939,14 +3014,14 @@
     <row r="73" spans="2:22" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B73" s="9"/>
       <c r="D73" s="12"/>
-      <c r="E73" s="83"/>
+      <c r="E73" s="81"/>
       <c r="F73" s="35"/>
       <c r="G73" s="29"/>
       <c r="H73" s="29"/>
       <c r="I73" s="29"/>
       <c r="J73" s="27"/>
-      <c r="K73" s="89"/>
-      <c r="L73" s="89"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
       <c r="M73" s="12"/>
       <c r="N73" s="3"/>
       <c r="P73" s="61"/>
@@ -2956,14 +3031,14 @@
     <row r="74" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B74" s="9"/>
       <c r="D74" s="13"/>
-      <c r="E74" s="83"/>
+      <c r="E74" s="81"/>
       <c r="F74" s="35"/>
       <c r="G74" s="29"/>
       <c r="H74" s="29"/>
       <c r="I74" s="29"/>
       <c r="J74" s="27"/>
-      <c r="K74" s="89"/>
-      <c r="L74" s="89"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
       <c r="M74" s="12"/>
       <c r="N74" s="3"/>
       <c r="P74" s="61"/>
@@ -2976,13 +3051,13 @@
         <v>24</v>
       </c>
       <c r="E75" s="55"/>
-      <c r="F75" s="87"/>
+      <c r="F75" s="85"/>
       <c r="G75" s="52"/>
       <c r="H75" s="52"/>
       <c r="I75" s="46"/>
-      <c r="J75" s="89"/>
-      <c r="K75" s="89"/>
-      <c r="L75" s="89"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
       <c r="M75" s="12"/>
       <c r="N75" s="3"/>
       <c r="P75" s="63">
@@ -2996,14 +3071,14 @@
     <row r="76" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
       <c r="B76" s="9"/>
       <c r="D76" s="12"/>
-      <c r="E76" s="83"/>
+      <c r="E76" s="81"/>
       <c r="F76" s="35"/>
       <c r="G76" s="29"/>
       <c r="H76" s="29"/>
       <c r="I76" s="29"/>
       <c r="J76" s="27"/>
-      <c r="K76" s="89"/>
-      <c r="L76" s="89"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
       <c r="M76" s="12"/>
       <c r="N76" s="3"/>
       <c r="P76" s="61"/>
@@ -3014,7 +3089,7 @@
       <c r="B77" s="8"/>
       <c r="C77" s="37"/>
       <c r="D77" s="11"/>
-      <c r="E77" s="82"/>
+      <c r="E77" s="80"/>
       <c r="F77" s="34"/>
       <c r="G77" s="28"/>
       <c r="H77" s="28"/>
@@ -3041,8 +3116,8 @@
       <c r="H78" s="29"/>
       <c r="I78" s="29"/>
       <c r="J78" s="27"/>
-      <c r="K78" s="89"/>
-      <c r="L78" s="89"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
       <c r="M78" s="12"/>
       <c r="N78" s="3"/>
       <c r="P78" s="61">
@@ -3058,14 +3133,14 @@
     <row r="79" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B79" s="9"/>
       <c r="D79" s="12"/>
-      <c r="E79" s="83"/>
+      <c r="E79" s="81"/>
       <c r="F79" s="35"/>
       <c r="G79" s="29"/>
       <c r="H79" s="29"/>
       <c r="I79" s="29"/>
       <c r="J79" s="27"/>
-      <c r="K79" s="89"/>
-      <c r="L79" s="89"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
       <c r="M79" s="12"/>
       <c r="N79" s="3"/>
       <c r="P79" s="61"/>
@@ -3075,14 +3150,14 @@
     <row r="80" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B80" s="9"/>
       <c r="D80" s="13"/>
-      <c r="E80" s="83"/>
+      <c r="E80" s="81"/>
       <c r="F80" s="35"/>
       <c r="G80" s="29"/>
       <c r="H80" s="29"/>
       <c r="I80" s="29"/>
       <c r="J80" s="27"/>
-      <c r="K80" s="89"/>
-      <c r="L80" s="89"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="16"/>
       <c r="M80" s="12"/>
       <c r="N80" s="3"/>
       <c r="P80" s="61"/>
@@ -3096,12 +3171,12 @@
       </c>
       <c r="E81" s="49"/>
       <c r="F81" s="18"/>
-      <c r="G81" s="85"/>
+      <c r="G81" s="83"/>
       <c r="H81" s="26"/>
       <c r="I81" s="29"/>
       <c r="J81" s="27"/>
-      <c r="K81" s="89"/>
-      <c r="L81" s="89"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
       <c r="M81" s="12"/>
       <c r="N81" s="3"/>
       <c r="P81" s="61">
@@ -3110,21 +3185,21 @@
       <c r="S81" s="77">
         <v>45657</v>
       </c>
-      <c r="V81" s="98">
+      <c r="V81" s="91">
         <v>46387</v>
       </c>
     </row>
     <row r="82" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B82" s="9"/>
       <c r="D82" s="12"/>
-      <c r="E82" s="83"/>
+      <c r="E82" s="81"/>
       <c r="F82" s="35"/>
       <c r="G82" s="27"/>
       <c r="H82" s="26"/>
       <c r="I82" s="29"/>
       <c r="J82" s="27"/>
-      <c r="K82" s="89"/>
-      <c r="L82" s="89"/>
+      <c r="K82" s="16"/>
+      <c r="L82" s="16"/>
       <c r="M82" s="12"/>
       <c r="N82" s="3"/>
       <c r="P82" s="61"/>
@@ -3134,14 +3209,14 @@
     <row r="83" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B83" s="9"/>
       <c r="D83" s="13"/>
-      <c r="E83" s="83"/>
+      <c r="E83" s="81"/>
       <c r="F83" s="35"/>
       <c r="G83" s="27"/>
       <c r="H83" s="26"/>
       <c r="I83" s="29"/>
       <c r="J83" s="27"/>
-      <c r="K83" s="89"/>
-      <c r="L83" s="89"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="16"/>
       <c r="M83" s="12"/>
       <c r="N83" s="3"/>
       <c r="P83" s="61"/>
@@ -3155,12 +3230,12 @@
       </c>
       <c r="E84" s="49"/>
       <c r="F84" s="49"/>
-      <c r="G84" s="85"/>
-      <c r="H84" s="85"/>
+      <c r="G84" s="83"/>
+      <c r="H84" s="83"/>
       <c r="I84" s="26"/>
       <c r="J84" s="27"/>
-      <c r="K84" s="89"/>
-      <c r="L84" s="89"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="16"/>
       <c r="M84" s="12"/>
       <c r="N84" s="3"/>
       <c r="P84" s="61">
@@ -3176,14 +3251,14 @@
     <row r="85" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B85" s="9"/>
       <c r="D85" s="12"/>
-      <c r="E85" s="83"/>
+      <c r="E85" s="81"/>
       <c r="F85" s="35"/>
       <c r="G85" s="27"/>
-      <c r="H85" s="89"/>
+      <c r="H85" s="16"/>
       <c r="I85" s="26"/>
       <c r="J85" s="27"/>
-      <c r="K85" s="89"/>
-      <c r="L85" s="89"/>
+      <c r="K85" s="16"/>
+      <c r="L85" s="16"/>
       <c r="M85" s="12"/>
       <c r="N85" s="3"/>
       <c r="P85" s="61"/>
@@ -3193,14 +3268,14 @@
     <row r="86" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B86" s="9"/>
       <c r="D86" s="13"/>
-      <c r="E86" s="83"/>
+      <c r="E86" s="81"/>
       <c r="F86" s="35"/>
       <c r="G86" s="27"/>
-      <c r="H86" s="89"/>
+      <c r="H86" s="16"/>
       <c r="I86" s="26"/>
       <c r="J86" s="27"/>
-      <c r="K86" s="89"/>
-      <c r="L86" s="89"/>
+      <c r="K86" s="16"/>
+      <c r="L86" s="16"/>
       <c r="M86" s="12"/>
       <c r="N86" s="3"/>
       <c r="P86" s="61"/>
@@ -3214,12 +3289,12 @@
       </c>
       <c r="E87" s="49"/>
       <c r="F87" s="49"/>
-      <c r="G87" s="86"/>
-      <c r="H87" s="85"/>
-      <c r="I87" s="85"/>
-      <c r="J87" s="89"/>
-      <c r="K87" s="89"/>
-      <c r="L87" s="89"/>
+      <c r="G87" s="84"/>
+      <c r="H87" s="83"/>
+      <c r="I87" s="83"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="16"/>
+      <c r="L87" s="16"/>
       <c r="M87" s="12"/>
       <c r="N87" s="3"/>
       <c r="O87" s="72"/>
@@ -3241,7 +3316,7 @@
       <c r="B88" s="10"/>
       <c r="C88" s="38"/>
       <c r="D88" s="15"/>
-      <c r="E88" s="84"/>
+      <c r="E88" s="82"/>
       <c r="F88" s="36"/>
       <c r="G88" s="32"/>
       <c r="H88" s="19"/>
@@ -3259,8 +3334,8 @@
       <c r="B89" s="8"/>
       <c r="C89" s="37"/>
       <c r="D89" s="11"/>
-      <c r="E89" s="82"/>
-      <c r="F89" s="82"/>
+      <c r="E89" s="80"/>
+      <c r="F89" s="80"/>
       <c r="G89" s="17"/>
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
@@ -3282,12 +3357,12 @@
       </c>
       <c r="E90" s="49"/>
       <c r="F90" s="18"/>
-      <c r="G90" s="89"/>
-      <c r="H90" s="89"/>
-      <c r="I90" s="89"/>
-      <c r="J90" s="89"/>
-      <c r="K90" s="89"/>
-      <c r="L90" s="89"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="16"/>
+      <c r="L90" s="16"/>
       <c r="M90" s="12"/>
       <c r="N90" s="3"/>
       <c r="P90" s="61"/>
@@ -3299,14 +3374,14 @@
     <row r="91" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
       <c r="B91" s="9"/>
       <c r="D91" s="12"/>
-      <c r="E91" s="83"/>
-      <c r="F91" s="83"/>
-      <c r="G91" s="89"/>
-      <c r="H91" s="89"/>
-      <c r="I91" s="89"/>
-      <c r="J91" s="89"/>
-      <c r="K91" s="89"/>
-      <c r="L91" s="89"/>
+      <c r="E91" s="81"/>
+      <c r="F91" s="81"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="16"/>
+      <c r="L91" s="16"/>
       <c r="M91" s="12"/>
       <c r="N91" s="3"/>
       <c r="P91" s="61"/>
@@ -3317,8 +3392,8 @@
       <c r="B92" s="8"/>
       <c r="C92" s="37"/>
       <c r="D92" s="11"/>
-      <c r="E92" s="82"/>
-      <c r="F92" s="82"/>
+      <c r="E92" s="80"/>
+      <c r="F92" s="80"/>
       <c r="G92" s="25"/>
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
@@ -3339,13 +3414,13 @@
         <v>8</v>
       </c>
       <c r="E93" s="49"/>
-      <c r="F93" s="83"/>
+      <c r="F93" s="81"/>
       <c r="G93" s="27"/>
-      <c r="H93" s="89"/>
-      <c r="I93" s="89"/>
-      <c r="J93" s="89"/>
-      <c r="K93" s="89"/>
-      <c r="L93" s="89"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="16"/>
+      <c r="L93" s="16"/>
       <c r="M93" s="12"/>
       <c r="N93" s="3"/>
       <c r="P93" s="61">
@@ -3359,14 +3434,14 @@
     <row r="94" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B94" s="9"/>
       <c r="D94" s="12"/>
-      <c r="E94" s="83"/>
-      <c r="F94" s="83"/>
+      <c r="E94" s="81"/>
+      <c r="F94" s="81"/>
       <c r="G94" s="27"/>
-      <c r="H94" s="89"/>
-      <c r="I94" s="89"/>
-      <c r="J94" s="89"/>
-      <c r="K94" s="89"/>
-      <c r="L94" s="89"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="16"/>
+      <c r="L94" s="16"/>
       <c r="M94" s="12"/>
       <c r="N94" s="3"/>
       <c r="P94" s="61"/>
@@ -3376,14 +3451,14 @@
     <row r="95" spans="2:22" ht="5.0999999999999996" customHeight="1" collapsed="1">
       <c r="B95" s="9"/>
       <c r="D95" s="13"/>
-      <c r="E95" s="83"/>
-      <c r="F95" s="83"/>
+      <c r="E95" s="81"/>
+      <c r="F95" s="81"/>
       <c r="G95" s="27"/>
-      <c r="H95" s="89"/>
-      <c r="I95" s="89"/>
-      <c r="J95" s="89"/>
-      <c r="K95" s="89"/>
-      <c r="L95" s="89"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="16"/>
+      <c r="L95" s="16"/>
       <c r="M95" s="12"/>
       <c r="N95" s="3"/>
       <c r="P95" s="61"/>
@@ -3399,12 +3474,12 @@
       </c>
       <c r="E96" s="49"/>
       <c r="F96" s="49"/>
-      <c r="G96" s="89"/>
-      <c r="H96" s="89"/>
-      <c r="I96" s="89"/>
-      <c r="J96" s="89"/>
-      <c r="K96" s="89"/>
-      <c r="L96" s="89"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="16"/>
+      <c r="L96" s="16"/>
       <c r="M96" s="12"/>
       <c r="N96" s="3"/>
       <c r="P96" s="61">
@@ -3418,14 +3493,14 @@
     <row r="97" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B97" s="9"/>
       <c r="D97" s="12"/>
-      <c r="E97" s="83"/>
-      <c r="F97" s="83"/>
+      <c r="E97" s="81"/>
+      <c r="F97" s="81"/>
       <c r="G97" s="27"/>
-      <c r="H97" s="89"/>
-      <c r="I97" s="89"/>
-      <c r="J97" s="89"/>
-      <c r="K97" s="89"/>
-      <c r="L97" s="89"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="16"/>
+      <c r="L97" s="16"/>
       <c r="M97" s="12"/>
       <c r="N97" s="3"/>
       <c r="P97" s="61"/>
@@ -3435,14 +3510,14 @@
     <row r="98" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B98" s="9"/>
       <c r="D98" s="13"/>
-      <c r="E98" s="83"/>
-      <c r="F98" s="83"/>
+      <c r="E98" s="81"/>
+      <c r="F98" s="81"/>
       <c r="G98" s="27"/>
-      <c r="H98" s="89"/>
-      <c r="I98" s="89"/>
-      <c r="J98" s="89"/>
-      <c r="K98" s="89"/>
-      <c r="L98" s="89"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="16"/>
+      <c r="L98" s="16"/>
       <c r="M98" s="12"/>
       <c r="N98" s="3"/>
       <c r="P98" s="61"/>
@@ -3456,12 +3531,12 @@
       </c>
       <c r="E99" s="49"/>
       <c r="F99" s="49"/>
-      <c r="G99" s="89"/>
-      <c r="H99" s="89"/>
-      <c r="I99" s="89"/>
-      <c r="J99" s="89"/>
-      <c r="K99" s="89"/>
-      <c r="L99" s="89"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="16"/>
+      <c r="L99" s="16"/>
       <c r="M99" s="12"/>
       <c r="N99" s="3"/>
       <c r="P99" s="61">
@@ -3475,14 +3550,14 @@
     <row r="100" spans="2:22" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B100" s="9"/>
       <c r="D100" s="12"/>
-      <c r="E100" s="83"/>
-      <c r="F100" s="83"/>
+      <c r="E100" s="81"/>
+      <c r="F100" s="81"/>
       <c r="G100" s="27"/>
-      <c r="H100" s="89"/>
-      <c r="I100" s="89"/>
-      <c r="J100" s="89"/>
-      <c r="K100" s="89"/>
-      <c r="L100" s="89"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16"/>
+      <c r="L100" s="16"/>
       <c r="M100" s="12"/>
       <c r="N100" s="3"/>
       <c r="P100" s="61"/>
@@ -3492,14 +3567,14 @@
     <row r="101" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B101" s="9"/>
       <c r="D101" s="13"/>
-      <c r="E101" s="83"/>
-      <c r="F101" s="83"/>
+      <c r="E101" s="81"/>
+      <c r="F101" s="81"/>
       <c r="G101" s="66"/>
-      <c r="H101" s="89"/>
-      <c r="I101" s="89"/>
-      <c r="J101" s="89"/>
-      <c r="K101" s="89"/>
-      <c r="L101" s="89"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="16"/>
+      <c r="L101" s="16"/>
       <c r="M101" s="12"/>
       <c r="N101" s="3"/>
       <c r="P101" s="61"/>
@@ -3512,13 +3587,13 @@
         <v>37</v>
       </c>
       <c r="E102" s="55"/>
-      <c r="F102" s="87"/>
+      <c r="F102" s="85"/>
       <c r="G102" s="46"/>
-      <c r="H102" s="89"/>
-      <c r="I102" s="89"/>
-      <c r="J102" s="89"/>
-      <c r="K102" s="89"/>
-      <c r="L102" s="89"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="16"/>
+      <c r="L102" s="16"/>
       <c r="M102" s="12"/>
       <c r="N102" s="3"/>
       <c r="P102" s="63">
@@ -3532,14 +3607,14 @@
     <row r="103" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B103" s="9"/>
       <c r="D103" s="12"/>
-      <c r="E103" s="83"/>
-      <c r="F103" s="91"/>
+      <c r="E103" s="81"/>
+      <c r="F103" s="88"/>
       <c r="G103" s="70"/>
-      <c r="H103" s="89"/>
-      <c r="I103" s="89"/>
-      <c r="J103" s="89"/>
-      <c r="K103" s="89"/>
-      <c r="L103" s="89"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="16"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="16"/>
+      <c r="L103" s="16"/>
       <c r="M103" s="12"/>
       <c r="N103" s="3"/>
       <c r="P103" s="61"/>
@@ -3549,14 +3624,14 @@
     <row r="104" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B104" s="9"/>
       <c r="D104" s="13"/>
-      <c r="E104" s="83"/>
+      <c r="E104" s="81"/>
       <c r="F104" s="35"/>
       <c r="G104" s="27"/>
-      <c r="H104" s="89"/>
-      <c r="I104" s="89"/>
-      <c r="J104" s="89"/>
-      <c r="K104" s="89"/>
-      <c r="L104" s="89"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="16"/>
+      <c r="L104" s="16"/>
       <c r="M104" s="12"/>
       <c r="N104" s="3"/>
       <c r="P104" s="61"/>
@@ -3569,13 +3644,13 @@
         <v>41</v>
       </c>
       <c r="E105" s="55"/>
-      <c r="F105" s="90"/>
+      <c r="F105" s="87"/>
       <c r="G105" s="71"/>
-      <c r="H105" s="89"/>
-      <c r="I105" s="89"/>
-      <c r="J105" s="89"/>
-      <c r="K105" s="89"/>
-      <c r="L105" s="89"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="16"/>
+      <c r="L105" s="16"/>
       <c r="M105" s="12"/>
       <c r="N105" s="3"/>
       <c r="P105" s="63">
@@ -3587,14 +3662,14 @@
     <row r="106" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B106" s="9"/>
       <c r="D106" s="12"/>
-      <c r="E106" s="83"/>
+      <c r="E106" s="81"/>
       <c r="F106" s="35"/>
       <c r="G106" s="27"/>
-      <c r="H106" s="89"/>
-      <c r="I106" s="89"/>
-      <c r="J106" s="89"/>
-      <c r="K106" s="89"/>
-      <c r="L106" s="89"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="16"/>
+      <c r="J106" s="16"/>
+      <c r="K106" s="16"/>
+      <c r="L106" s="16"/>
       <c r="M106" s="12"/>
       <c r="N106" s="3"/>
       <c r="P106" s="61"/>
@@ -3604,14 +3679,14 @@
     <row r="107" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B107" s="9"/>
       <c r="D107" s="13"/>
-      <c r="E107" s="83"/>
+      <c r="E107" s="81"/>
       <c r="F107" s="35"/>
       <c r="G107" s="27"/>
-      <c r="H107" s="89"/>
-      <c r="I107" s="89"/>
-      <c r="J107" s="89"/>
-      <c r="K107" s="89"/>
-      <c r="L107" s="89"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="16"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="16"/>
+      <c r="L107" s="16"/>
       <c r="M107" s="12"/>
       <c r="N107" s="3"/>
       <c r="P107" s="61"/>
@@ -3627,10 +3702,10 @@
       <c r="F108" s="35"/>
       <c r="G108" s="56"/>
       <c r="H108" s="67"/>
-      <c r="I108" s="89"/>
-      <c r="J108" s="89"/>
-      <c r="K108" s="89"/>
-      <c r="L108" s="89"/>
+      <c r="I108" s="16"/>
+      <c r="J108" s="16"/>
+      <c r="K108" s="16"/>
+      <c r="L108" s="16"/>
       <c r="M108" s="12"/>
       <c r="N108" s="3"/>
       <c r="P108" s="63">
@@ -3643,7 +3718,7 @@
       <c r="B109" s="10"/>
       <c r="C109" s="38"/>
       <c r="D109" s="15"/>
-      <c r="E109" s="84"/>
+      <c r="E109" s="82"/>
       <c r="F109" s="36"/>
       <c r="G109" s="32"/>
       <c r="H109" s="19"/>
@@ -3660,14 +3735,14 @@
     <row r="110" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B110" s="9"/>
       <c r="D110" s="12"/>
-      <c r="E110" s="83"/>
+      <c r="E110" s="81"/>
       <c r="F110" s="35"/>
       <c r="G110" s="27"/>
-      <c r="H110" s="89"/>
-      <c r="I110" s="89"/>
-      <c r="J110" s="89"/>
-      <c r="K110" s="89"/>
-      <c r="L110" s="89"/>
+      <c r="H110" s="16"/>
+      <c r="I110" s="16"/>
+      <c r="J110" s="16"/>
+      <c r="K110" s="16"/>
+      <c r="L110" s="16"/>
       <c r="M110" s="12"/>
       <c r="N110" s="3"/>
       <c r="P110" s="61"/>
@@ -3684,11 +3759,11 @@
       <c r="E111" s="49"/>
       <c r="F111" s="35"/>
       <c r="G111" s="27"/>
-      <c r="H111" s="89"/>
-      <c r="I111" s="89"/>
-      <c r="J111" s="89"/>
-      <c r="K111" s="89"/>
-      <c r="L111" s="89"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="16"/>
+      <c r="J111" s="16"/>
+      <c r="K111" s="16"/>
+      <c r="L111" s="16"/>
       <c r="M111" s="12"/>
       <c r="P111" s="61"/>
       <c r="S111" s="75"/>
@@ -3699,14 +3774,14 @@
     <row r="112" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B112" s="9"/>
       <c r="D112" s="12"/>
-      <c r="E112" s="83"/>
+      <c r="E112" s="81"/>
       <c r="F112" s="35"/>
       <c r="G112" s="27"/>
-      <c r="H112" s="89"/>
-      <c r="I112" s="89"/>
-      <c r="J112" s="89"/>
-      <c r="K112" s="89"/>
-      <c r="L112" s="89"/>
+      <c r="H112" s="16"/>
+      <c r="I112" s="16"/>
+      <c r="J112" s="16"/>
+      <c r="K112" s="16"/>
+      <c r="L112" s="16"/>
       <c r="M112" s="12"/>
       <c r="N112" s="3"/>
       <c r="P112" s="61"/>
@@ -3716,14 +3791,14 @@
     <row r="113" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B113" s="9"/>
       <c r="D113" s="13"/>
-      <c r="E113" s="83"/>
+      <c r="E113" s="81"/>
       <c r="F113" s="35"/>
       <c r="G113" s="27"/>
-      <c r="H113" s="89"/>
-      <c r="I113" s="89"/>
-      <c r="J113" s="89"/>
-      <c r="K113" s="89"/>
-      <c r="L113" s="89"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="16"/>
+      <c r="J113" s="16"/>
+      <c r="K113" s="16"/>
+      <c r="L113" s="16"/>
       <c r="M113" s="12"/>
       <c r="N113" s="3"/>
       <c r="P113" s="61"/>
@@ -3738,11 +3813,11 @@
       <c r="E114" s="49"/>
       <c r="F114" s="35"/>
       <c r="G114" s="27"/>
-      <c r="H114" s="89"/>
-      <c r="I114" s="89"/>
-      <c r="J114" s="89"/>
-      <c r="K114" s="89"/>
-      <c r="L114" s="89"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="16"/>
+      <c r="J114" s="16"/>
+      <c r="K114" s="16"/>
+      <c r="L114" s="16"/>
       <c r="M114" s="12"/>
       <c r="N114" s="3"/>
       <c r="P114" s="62">
@@ -3756,14 +3831,14 @@
     <row r="115" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B115" s="9"/>
       <c r="D115" s="12"/>
-      <c r="E115" s="83"/>
+      <c r="E115" s="81"/>
       <c r="F115" s="35"/>
       <c r="G115" s="27"/>
-      <c r="H115" s="89"/>
-      <c r="I115" s="89"/>
-      <c r="J115" s="89"/>
-      <c r="K115" s="89"/>
-      <c r="L115" s="89"/>
+      <c r="H115" s="16"/>
+      <c r="I115" s="16"/>
+      <c r="J115" s="16"/>
+      <c r="K115" s="16"/>
+      <c r="L115" s="16"/>
       <c r="M115" s="12"/>
       <c r="N115" s="3"/>
       <c r="P115" s="61"/>
@@ -3773,14 +3848,14 @@
     <row r="116" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B116" s="9"/>
       <c r="D116" s="13"/>
-      <c r="E116" s="83"/>
+      <c r="E116" s="81"/>
       <c r="F116" s="35"/>
       <c r="G116" s="27"/>
-      <c r="H116" s="89"/>
-      <c r="I116" s="89"/>
-      <c r="J116" s="89"/>
-      <c r="K116" s="89"/>
-      <c r="L116" s="89"/>
+      <c r="H116" s="16"/>
+      <c r="I116" s="16"/>
+      <c r="J116" s="16"/>
+      <c r="K116" s="16"/>
+      <c r="L116" s="16"/>
       <c r="M116" s="12"/>
       <c r="N116" s="3"/>
       <c r="P116" s="61"/>
@@ -3795,11 +3870,11 @@
       <c r="E117" s="49"/>
       <c r="F117" s="35"/>
       <c r="G117" s="27"/>
-      <c r="H117" s="89"/>
-      <c r="I117" s="89"/>
-      <c r="J117" s="89"/>
-      <c r="K117" s="89"/>
-      <c r="L117" s="89"/>
+      <c r="H117" s="16"/>
+      <c r="I117" s="16"/>
+      <c r="J117" s="16"/>
+      <c r="K117" s="16"/>
+      <c r="L117" s="16"/>
       <c r="M117" s="12"/>
       <c r="N117" s="3"/>
       <c r="P117" s="62">
@@ -3813,14 +3888,14 @@
     <row r="118" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
       <c r="B118" s="9"/>
       <c r="D118" s="12"/>
-      <c r="E118" s="83"/>
+      <c r="E118" s="81"/>
       <c r="F118" s="35"/>
       <c r="G118" s="27"/>
-      <c r="H118" s="89"/>
-      <c r="I118" s="89"/>
-      <c r="J118" s="89"/>
-      <c r="K118" s="89"/>
-      <c r="L118" s="89"/>
+      <c r="H118" s="16"/>
+      <c r="I118" s="16"/>
+      <c r="J118" s="16"/>
+      <c r="K118" s="16"/>
+      <c r="L118" s="16"/>
       <c r="M118" s="12"/>
       <c r="N118" s="3"/>
       <c r="P118" s="61"/>
@@ -3831,7 +3906,7 @@
       <c r="B119" s="8"/>
       <c r="C119" s="37"/>
       <c r="D119" s="11"/>
-      <c r="E119" s="82"/>
+      <c r="E119" s="80"/>
       <c r="F119" s="34"/>
       <c r="G119" s="25"/>
       <c r="H119" s="17"/>
@@ -3853,13 +3928,13 @@
         <v>33</v>
       </c>
       <c r="E120" s="49"/>
-      <c r="F120" s="92"/>
-      <c r="G120" s="89"/>
-      <c r="H120" s="89"/>
-      <c r="I120" s="89"/>
-      <c r="J120" s="89"/>
-      <c r="K120" s="89"/>
-      <c r="L120" s="89"/>
+      <c r="F120" s="89"/>
+      <c r="G120" s="16"/>
+      <c r="H120" s="16"/>
+      <c r="I120" s="16"/>
+      <c r="J120" s="16"/>
+      <c r="K120" s="16"/>
+      <c r="L120" s="16"/>
       <c r="M120" s="12"/>
       <c r="N120" s="3"/>
       <c r="P120" s="62">
@@ -3873,14 +3948,14 @@
     <row r="121" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B121" s="9"/>
       <c r="D121" s="12"/>
-      <c r="E121" s="83"/>
+      <c r="E121" s="81"/>
       <c r="F121" s="35"/>
       <c r="G121" s="27"/>
-      <c r="H121" s="89"/>
-      <c r="I121" s="89"/>
-      <c r="J121" s="89"/>
-      <c r="K121" s="89"/>
-      <c r="L121" s="89"/>
+      <c r="H121" s="16"/>
+      <c r="I121" s="16"/>
+      <c r="J121" s="16"/>
+      <c r="K121" s="16"/>
+      <c r="L121" s="16"/>
       <c r="M121" s="12"/>
       <c r="N121" s="3"/>
       <c r="P121" s="61"/>
@@ -3890,14 +3965,14 @@
     <row r="122" spans="2:22" ht="5.0999999999999996" customHeight="1" outlineLevel="1">
       <c r="B122" s="9"/>
       <c r="D122" s="13"/>
-      <c r="E122" s="83"/>
+      <c r="E122" s="81"/>
       <c r="F122" s="35"/>
       <c r="G122" s="27"/>
-      <c r="H122" s="89"/>
-      <c r="I122" s="89"/>
-      <c r="J122" s="89"/>
-      <c r="K122" s="89"/>
-      <c r="L122" s="89"/>
+      <c r="H122" s="16"/>
+      <c r="I122" s="16"/>
+      <c r="J122" s="16"/>
+      <c r="K122" s="16"/>
+      <c r="L122" s="16"/>
       <c r="M122" s="12"/>
       <c r="N122" s="3"/>
       <c r="P122" s="61"/>
@@ -3910,13 +3985,13 @@
         <v>40</v>
       </c>
       <c r="E123" s="55"/>
-      <c r="F123" s="90"/>
-      <c r="G123" s="89"/>
-      <c r="H123" s="89"/>
-      <c r="I123" s="89"/>
-      <c r="J123" s="89"/>
-      <c r="K123" s="89"/>
-      <c r="L123" s="89"/>
+      <c r="F123" s="87"/>
+      <c r="G123" s="16"/>
+      <c r="H123" s="16"/>
+      <c r="I123" s="16"/>
+      <c r="J123" s="16"/>
+      <c r="K123" s="16"/>
+      <c r="L123" s="16"/>
       <c r="M123" s="12"/>
       <c r="N123" s="3"/>
       <c r="P123" s="63">
@@ -3931,8 +4006,8 @@
       <c r="B124" s="10"/>
       <c r="C124" s="38"/>
       <c r="D124" s="15"/>
-      <c r="E124" s="84"/>
-      <c r="F124" s="84"/>
+      <c r="E124" s="82"/>
+      <c r="F124" s="82"/>
       <c r="G124" s="19"/>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -4003,5 +4078,6 @@
   <ignoredErrors>
     <ignoredError sqref="D12 D90 D18 D87 D54 D57 D21 D24 D93:D97 D123 D107 D99 D114 D117 D120 D109:D112 D102" numberStoredAsText="1"/>
   </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>